--- a/data/trans_orig/P39B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>22939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14219</v>
+        <v>14773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34877</v>
+        <v>34225</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09930275347543673</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06155389990600141</v>
+        <v>0.06395350618713735</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1509830987097407</v>
+        <v>0.1481623432575528</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>5721</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1910</v>
+        <v>1047</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14612</v>
+        <v>13786</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02334615419118825</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007792186787836193</v>
+        <v>0.004271786548188844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05962329157648459</v>
+        <v>0.05625455208365854</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -785,19 +785,19 @@
         <v>28660</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19227</v>
+        <v>18609</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41503</v>
+        <v>42283</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06020198522957838</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04038654290520578</v>
+        <v>0.03908913345638835</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08717873720358252</v>
+        <v>0.08881775501906494</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>35048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25898</v>
+        <v>25622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46831</v>
+        <v>47205</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1517228610053822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1121128659878052</v>
+        <v>0.1109174782216813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2027322619811727</v>
+        <v>0.2043525012810453</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -835,19 +835,19 @@
         <v>33147</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23032</v>
+        <v>22358</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46129</v>
+        <v>46239</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1352574021872257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0939832008203294</v>
+        <v>0.09123071284743355</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1882303690634621</v>
+        <v>0.1886793981261295</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -856,19 +856,19 @@
         <v>68195</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52803</v>
+        <v>52437</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>85893</v>
+        <v>85637</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1432468089522728</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1109148452026998</v>
+        <v>0.1101452962467731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1804223709644754</v>
+        <v>0.1798845520698034</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>66426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54446</v>
+        <v>52594</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83335</v>
+        <v>80114</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2875599830640468</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2356986883648097</v>
+        <v>0.2276799464204277</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3607612055573265</v>
+        <v>0.346817094542869</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -906,19 +906,19 @@
         <v>78141</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62867</v>
+        <v>63973</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>93755</v>
+        <v>94636</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3188540380011378</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2565264860687064</v>
+        <v>0.2610390623140438</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3825642849154951</v>
+        <v>0.3861600700724024</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>135</v>
@@ -927,19 +927,19 @@
         <v>144567</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>124758</v>
+        <v>124642</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>165381</v>
+        <v>163976</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3036694666520266</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.262058931491663</v>
+        <v>0.2618159915365193</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3473908810986505</v>
+        <v>0.3444388312136021</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>30668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20744</v>
+        <v>21154</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43669</v>
+        <v>43615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1327644935064337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08980023696960526</v>
+        <v>0.09157560322702772</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1890468645993832</v>
+        <v>0.1888126566309468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -977,19 +977,19 @@
         <v>38878</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28058</v>
+        <v>28364</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52377</v>
+        <v>52347</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1586418649873192</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1144915817852056</v>
+        <v>0.1157400488691169</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2137241267695117</v>
+        <v>0.2135997907772755</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -998,19 +998,19 @@
         <v>69547</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54586</v>
+        <v>53599</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88782</v>
+        <v>85676</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1460855889032877</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1146593566209583</v>
+        <v>0.1125864105243764</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1864914990107745</v>
+        <v>0.1799654410249218</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>75917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61505</v>
+        <v>60083</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91819</v>
+        <v>92434</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3286499089487006</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2662564536132438</v>
+        <v>0.2601018549775116</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3974867915062177</v>
+        <v>0.4001491010289264</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -1048,19 +1048,19 @@
         <v>89181</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>74909</v>
+        <v>73408</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>106299</v>
+        <v>104166</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3639005406331291</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3056655229177015</v>
+        <v>0.2995389264769912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4337511308517342</v>
+        <v>0.4250482468915506</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>152</v>
@@ -1069,19 +1069,19 @@
         <v>165098</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>144327</v>
+        <v>145567</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>187784</v>
+        <v>191125</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3467961502628346</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3031653011378626</v>
+        <v>0.305769020278033</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3944495040493099</v>
+        <v>0.4014657360163759</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>22084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13588</v>
+        <v>13797</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32377</v>
+        <v>35056</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05143202029619537</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0316454391906286</v>
+        <v>0.03213149415045895</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07540334990989242</v>
+        <v>0.08164316271072578</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1194,19 +1194,19 @@
         <v>15678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9244</v>
+        <v>9271</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25572</v>
+        <v>24332</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03242623818921993</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01911820662328357</v>
+        <v>0.01917548788925849</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05288878736911972</v>
+        <v>0.0503248430719903</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -1215,19 +1215,19 @@
         <v>37762</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26460</v>
+        <v>27359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51933</v>
+        <v>52819</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04136574586296929</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.028985551222482</v>
+        <v>0.02996960725005919</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05688980588037877</v>
+        <v>0.05785983553697786</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>105808</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88488</v>
+        <v>89931</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124527</v>
+        <v>125250</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2464207537279103</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2060840031129893</v>
+        <v>0.2094437946919358</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2900179556578321</v>
+        <v>0.2917000571932601</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>75</v>
@@ -1265,19 +1265,19 @@
         <v>81711</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>67014</v>
+        <v>65857</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>99780</v>
+        <v>100036</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1689991247156842</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.138603049546682</v>
+        <v>0.1362094435781667</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.206371956697345</v>
+        <v>0.2069002658668066</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>178</v>
@@ -1286,19 +1286,19 @@
         <v>187518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>162881</v>
+        <v>163313</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>213920</v>
+        <v>210438</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2054149503193543</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1784261447965254</v>
+        <v>0.1788999089207085</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.234335775703641</v>
+        <v>0.2305225084520481</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>192429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>171565</v>
+        <v>169749</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>213610</v>
+        <v>214895</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4481565061738019</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3995662802770995</v>
+        <v>0.3953373505661931</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4974868064001954</v>
+        <v>0.500480229827506</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>166</v>
@@ -1336,19 +1336,19 @@
         <v>184561</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>162357</v>
+        <v>164128</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>206713</v>
+        <v>209642</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.381720974400461</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3357957430254848</v>
+        <v>0.3394585767153235</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4275357141689537</v>
+        <v>0.4335940691199673</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>347</v>
@@ -1357,19 +1357,19 @@
         <v>376990</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>346443</v>
+        <v>349073</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>410227</v>
+        <v>409608</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4129694093638098</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3795067884454993</v>
+        <v>0.3823883157842665</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4493782961468105</v>
+        <v>0.4487001691982001</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>43069</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31734</v>
+        <v>30626</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58597</v>
+        <v>57671</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.100305527101265</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07390798092065186</v>
+        <v>0.07132759061765105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1364695758019747</v>
+        <v>0.1343130511539882</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -1407,19 +1407,19 @@
         <v>69970</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54918</v>
+        <v>54863</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85689</v>
+        <v>87352</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1447167225794738</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1135850614634622</v>
+        <v>0.1134710781277381</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1772271523275142</v>
+        <v>0.1806668031404921</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -1428,19 +1428,19 @@
         <v>113039</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93574</v>
+        <v>92327</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134238</v>
+        <v>135583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1238275941793266</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1025050934608042</v>
+        <v>0.1011386271306599</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1470499662895814</v>
+        <v>0.1485223857340147</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>65989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49711</v>
+        <v>50916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84059</v>
+        <v>84202</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1536851927008275</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1157753454063059</v>
+        <v>0.1185818114214016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1957701586262255</v>
+        <v>0.1961021406217852</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -1478,19 +1478,19 @@
         <v>131578</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113395</v>
+        <v>113259</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>154589</v>
+        <v>151783</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.272136940115161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2345313036114966</v>
+        <v>0.2342492803080634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3197296188395191</v>
+        <v>0.3139276777586933</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>176</v>
@@ -1499,19 +1499,19 @@
         <v>197567</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>169189</v>
+        <v>173969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224329</v>
+        <v>227817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.21642230027454</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1853364708953813</v>
+        <v>0.1905721632548646</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2457383071254793</v>
+        <v>0.2495596852635878</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>33738</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25123</v>
+        <v>25246</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44538</v>
+        <v>45334</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1265639237591903</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0942466463081106</v>
+        <v>0.09470509800456706</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1670782009076387</v>
+        <v>0.170062618427915</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1624,19 +1624,19 @@
         <v>25279</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15624</v>
+        <v>16156</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38992</v>
+        <v>38542</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08447384851001213</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05220974817631722</v>
+        <v>0.05398777965384569</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1302969975024623</v>
+        <v>0.1287944453453052</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -1645,19 +1645,19 @@
         <v>59017</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45079</v>
+        <v>44435</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75631</v>
+        <v>74735</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1043032315817429</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07966881225602043</v>
+        <v>0.0785322936857387</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1336651246556728</v>
+        <v>0.132081506543889</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>58990</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46183</v>
+        <v>46692</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73446</v>
+        <v>74665</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2212922005647747</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1732488670041966</v>
+        <v>0.1751598648746499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2755218536754174</v>
+        <v>0.280095671123251</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -1695,19 +1695,19 @@
         <v>52661</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40529</v>
+        <v>40302</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67845</v>
+        <v>67697</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1759737527479383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1354329522341675</v>
+        <v>0.1346749632825144</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2267141946265994</v>
+        <v>0.2262208432198106</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>107</v>
@@ -1716,19 +1716,19 @@
         <v>111651</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>93260</v>
+        <v>93014</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>130844</v>
+        <v>131867</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1973240795567229</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1648223673110078</v>
+        <v>0.1643864597198089</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2312454874624778</v>
+        <v>0.23305223654587</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>73979</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59389</v>
+        <v>60785</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>89957</v>
+        <v>90403</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2775206536441377</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2227896647296992</v>
+        <v>0.2280266636264476</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3374595043942054</v>
+        <v>0.3391340717793656</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -1766,19 +1766,19 @@
         <v>74618</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>58992</v>
+        <v>60635</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>91355</v>
+        <v>90371</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2493450824184471</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1971291997677862</v>
+        <v>0.2026192975152752</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3052771531587224</v>
+        <v>0.301987191320733</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>142</v>
@@ -1787,19 +1787,19 @@
         <v>148596</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126717</v>
+        <v>127666</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>170504</v>
+        <v>170333</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2626190951587775</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2239519452726202</v>
+        <v>0.2256276083604516</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3013383061277116</v>
+        <v>0.301035534971944</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>26781</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17918</v>
+        <v>17675</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38379</v>
+        <v>38922</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1004670365320605</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06721627366587665</v>
+        <v>0.06630628402517492</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1439749850169739</v>
+        <v>0.1460086847197176</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1837,19 +1837,19 @@
         <v>30767</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21449</v>
+        <v>21246</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42646</v>
+        <v>42923</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1028136395150376</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07167624684809483</v>
+        <v>0.07099606223070251</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1425086621471643</v>
+        <v>0.1434336114101971</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -1858,19 +1858,19 @@
         <v>57549</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44560</v>
+        <v>44761</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72968</v>
+        <v>72824</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1017081131126435</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07875156798853607</v>
+        <v>0.07910792561889796</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1289592139606665</v>
+        <v>0.1287046958462489</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>73082</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59418</v>
+        <v>58760</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87649</v>
+        <v>88174</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2741561854998368</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2228989243381793</v>
+        <v>0.2204300195057755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3288038918947465</v>
+        <v>0.3307721937261526</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -1908,19 +1908,19 @@
         <v>115929</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>99539</v>
+        <v>99453</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>132475</v>
+        <v>134072</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3873936768085648</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.332623707339725</v>
+        <v>0.3323373425515464</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4426828108089883</v>
+        <v>0.4480195011039021</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>177</v>
@@ -1929,19 +1929,19 @@
         <v>189011</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>165665</v>
+        <v>169085</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>212694</v>
+        <v>214223</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3340454805901131</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2927847974043081</v>
+        <v>0.2988290074548791</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3759013783401077</v>
+        <v>0.3786036139224379</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>24363</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15572</v>
+        <v>15229</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36860</v>
+        <v>36124</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08842520032580993</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05652081974855865</v>
+        <v>0.05527402130695514</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1337855922808548</v>
+        <v>0.1311118703574273</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2057,16 +2057,16 @@
         <v>12810</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30605</v>
+        <v>30462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06333480374587665</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03996172692665401</v>
+        <v>0.03996232200951147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09547387288181423</v>
+        <v>0.09502689476802695</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -2075,19 +2075,19 @@
         <v>44665</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32974</v>
+        <v>31879</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60000</v>
+        <v>58729</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07493196466091638</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05531800252734873</v>
+        <v>0.05348197994608773</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1006585865917279</v>
+        <v>0.09852522608221941</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>64727</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>51253</v>
+        <v>50456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>80182</v>
+        <v>82161</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2349289576047756</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1860246237982916</v>
+        <v>0.1831330229229162</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2910230146085668</v>
+        <v>0.2982055240842779</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>55</v>
@@ -2125,19 +2125,19 @@
         <v>59354</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>46605</v>
+        <v>45215</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>74859</v>
+        <v>75509</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1851562085659405</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1453855994117309</v>
+        <v>0.1410501929966775</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2335237353459441</v>
+        <v>0.2355514583387595</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>115</v>
@@ -2146,19 +2146,19 @@
         <v>124081</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>105896</v>
+        <v>104280</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>147909</v>
+        <v>147245</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2081619262296027</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1776543479389669</v>
+        <v>0.1749436245013077</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2481371218963034</v>
+        <v>0.2470228927915686</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>61855</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46925</v>
+        <v>47187</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>76362</v>
+        <v>76176</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2245062405876309</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1703175548197456</v>
+        <v>0.1712675849851893</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2771593864122943</v>
+        <v>0.2764844814706777</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>73</v>
@@ -2196,19 +2196,19 @@
         <v>77499</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>62255</v>
+        <v>62131</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>94255</v>
+        <v>94751</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2417597400048958</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1942070480478964</v>
+        <v>0.1938181613184299</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.294031755336324</v>
+        <v>0.2955776438250035</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>131</v>
@@ -2217,19 +2217,19 @@
         <v>139354</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>118786</v>
+        <v>119837</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>162660</v>
+        <v>161182</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2337849115301002</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1992796925922969</v>
+        <v>0.2010418511980076</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2728834032253585</v>
+        <v>0.2704037574630709</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>43149</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30719</v>
+        <v>30759</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56663</v>
+        <v>56988</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1566112934505909</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1114976072742119</v>
+        <v>0.1116398846560187</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2056603617195096</v>
+        <v>0.206838494014405</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -2267,19 +2267,19 @@
         <v>44383</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33555</v>
+        <v>32152</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57733</v>
+        <v>57680</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1384544325179373</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1046759866122019</v>
+        <v>0.1002979605783051</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1801007537513744</v>
+        <v>0.1799348472018775</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -2288,19 +2288,19 @@
         <v>87532</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>70073</v>
+        <v>70337</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>106805</v>
+        <v>105540</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1468468083529366</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1175564134252277</v>
+        <v>0.1180001291043873</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1791796968210369</v>
+        <v>0.1770574506262111</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>81423</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>66631</v>
+        <v>66755</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>98205</v>
+        <v>97128</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2955283080311927</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2418390710423925</v>
+        <v>0.2422897401806726</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3564396961765178</v>
+        <v>0.3525294339075644</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>113</v>
@@ -2338,19 +2338,19 @@
         <v>119023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101093</v>
+        <v>101373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>137058</v>
+        <v>135009</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3712948151653498</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3153605989811709</v>
+        <v>0.3162336867866445</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4275563735844939</v>
+        <v>0.4211625525225335</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>186</v>
@@ -2359,19 +2359,19 @@
         <v>200446</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>176903</v>
+        <v>177142</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>226048</v>
+        <v>224781</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3362743892264441</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2967782843609836</v>
+        <v>0.2971784680818941</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3792252563471777</v>
+        <v>0.3770997887405897</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>15709</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8771</v>
+        <v>9325</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25761</v>
+        <v>25698</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09080261321785653</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05069551619030883</v>
+        <v>0.05389965512358907</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1489034575616434</v>
+        <v>0.1485406153188792</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -2484,19 +2484,19 @@
         <v>12163</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6194</v>
+        <v>6152</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21859</v>
+        <v>20162</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06206996211210933</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03161193501222632</v>
+        <v>0.03139411533023198</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1115559770308713</v>
+        <v>0.1028934889510701</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -2505,19 +2505,19 @@
         <v>27872</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17806</v>
+        <v>18317</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40046</v>
+        <v>39484</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07554283844842442</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04826083882127443</v>
+        <v>0.04964523515138579</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1085386088713346</v>
+        <v>0.1070152668092044</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>34895</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25372</v>
+        <v>25050</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46345</v>
+        <v>46818</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2016978996141498</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1466535468149131</v>
+        <v>0.1447908807649658</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2678805833848602</v>
+        <v>0.2706164155270588</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>40</v>
@@ -2555,19 +2555,19 @@
         <v>41247</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30816</v>
+        <v>30590</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53827</v>
+        <v>53056</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.210497949797054</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1572654536087211</v>
+        <v>0.1561090103409671</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2746953645884815</v>
+        <v>0.2707633151693988</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -2576,19 +2576,19 @@
         <v>76142</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>60022</v>
+        <v>61223</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>93323</v>
+        <v>91997</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2063715645417818</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1626822971574569</v>
+        <v>0.1659374988595244</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2529392852468056</v>
+        <v>0.2493442676308673</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>52413</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>41429</v>
+        <v>39469</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66379</v>
+        <v>65777</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.302959159294891</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2394663486020307</v>
+        <v>0.2281380921209874</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3836840791302768</v>
+        <v>0.380203766667019</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>49</v>
@@ -2626,19 +2626,19 @@
         <v>50271</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>39222</v>
+        <v>37938</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>62427</v>
+        <v>64434</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2565518711385203</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2001655751683512</v>
+        <v>0.1936109854429635</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3185841239293241</v>
+        <v>0.3288308968423261</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>99</v>
@@ -2647,19 +2647,19 @@
         <v>102685</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>85133</v>
+        <v>85227</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>120966</v>
+        <v>121286</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2783124685902974</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2307395581521002</v>
+        <v>0.2309968164252444</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3278623711045376</v>
+        <v>0.3287278071138107</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>21327</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14049</v>
+        <v>13543</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31960</v>
+        <v>32152</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1232755725124517</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08120859406672759</v>
+        <v>0.07827889014961607</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1847333808808876</v>
+        <v>0.1858448383898273</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>29</v>
@@ -2697,19 +2697,19 @@
         <v>29442</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20479</v>
+        <v>19801</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>40880</v>
+        <v>40279</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1502534213089545</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1045111997313666</v>
+        <v>0.1010503017673354</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2086247375188583</v>
+        <v>0.205556214252264</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>48</v>
@@ -2718,19 +2718,19 @@
         <v>50769</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38885</v>
+        <v>38053</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>65944</v>
+        <v>64947</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1376033800956539</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1053921725317194</v>
+        <v>0.1031377253756404</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1787309024327989</v>
+        <v>0.1760294051292709</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>48660</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37364</v>
+        <v>38096</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61942</v>
+        <v>62477</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2812647553606509</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2159725358499009</v>
+        <v>0.2202020592202646</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3580333547528813</v>
+        <v>0.3611307139006621</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>59</v>
@@ -2768,19 +2768,19 @@
         <v>62827</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>49118</v>
+        <v>49471</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>75914</v>
+        <v>76365</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3206267956433617</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2506636250336481</v>
+        <v>0.252468805542005</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3874154772154029</v>
+        <v>0.3897186683945366</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>103</v>
@@ -2789,19 +2789,19 @@
         <v>111487</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>95097</v>
+        <v>93779</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>129802</v>
+        <v>131310</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3021697483238424</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2577463279295596</v>
+        <v>0.2541733575362269</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3518098614520087</v>
+        <v>0.3558972222088538</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>21653</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14442</v>
+        <v>14176</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>32108</v>
+        <v>32368</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09186616711230988</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06126959332033821</v>
+        <v>0.06014203282008062</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1362219331316844</v>
+        <v>0.1373245095783599</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>20</v>
@@ -2914,19 +2914,19 @@
         <v>20055</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>12998</v>
+        <v>12693</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>30197</v>
+        <v>29313</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08399182288910462</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05443771454969471</v>
+        <v>0.05316092480597468</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1264668063375778</v>
+        <v>0.1227664983359359</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>42</v>
@@ -2935,19 +2935,19 @@
         <v>41708</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>29843</v>
+        <v>31159</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>54971</v>
+        <v>54917</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08790353517960836</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06289631006915077</v>
+        <v>0.06567015558350604</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1158560918699119</v>
+        <v>0.1157417963118856</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>57709</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>43676</v>
+        <v>43965</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>71786</v>
+        <v>73646</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2448356158289849</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1853003490891149</v>
+        <v>0.1865234618450442</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3045604358792793</v>
+        <v>0.3124486475770514</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>49</v>
@@ -2985,19 +2985,19 @@
         <v>50552</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>38124</v>
+        <v>38219</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>62650</v>
+        <v>63554</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2117143109786896</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1596676682924516</v>
+        <v>0.1600638190514243</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2623817022288837</v>
+        <v>0.2661688974871759</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>102</v>
@@ -3006,19 +3006,19 @@
         <v>108260</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>89472</v>
+        <v>89850</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>127513</v>
+        <v>128074</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2281678735342371</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1885690861926982</v>
+        <v>0.1893660566185382</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2687448772580521</v>
+        <v>0.2699271264566813</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>69366</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>56579</v>
+        <v>55370</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>85654</v>
+        <v>83962</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2942923993760153</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2400399795836397</v>
+        <v>0.2349141494680516</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3633943869236507</v>
+        <v>0.3562149067869433</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>62</v>
@@ -3056,19 +3056,19 @@
         <v>64958</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>51077</v>
+        <v>53128</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>79231</v>
+        <v>79843</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2720505262954475</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2139125719875704</v>
+        <v>0.2225045693681159</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3318266494910664</v>
+        <v>0.3343877515058076</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>127</v>
@@ -3077,19 +3077,19 @@
         <v>134324</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>116663</v>
+        <v>115267</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>155865</v>
+        <v>156100</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2830995490238019</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2458773784459342</v>
+        <v>0.2429350997745798</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3284992266762677</v>
+        <v>0.328994267324834</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>29225</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20964</v>
+        <v>19763</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>40897</v>
+        <v>39171</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1239901454507834</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08894162623186283</v>
+        <v>0.08384626518681293</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1735096205401614</v>
+        <v>0.1661870300554584</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>30</v>
@@ -3127,19 +3127,19 @@
         <v>30879</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>21710</v>
+        <v>22175</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>42672</v>
+        <v>42297</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1293251553533293</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09092396254475364</v>
+        <v>0.09287130752608838</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1787157587908875</v>
+        <v>0.1771436355869409</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>58</v>
@@ -3148,19 +3148,19 @@
         <v>60104</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>46442</v>
+        <v>47313</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>76323</v>
+        <v>76842</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1266748998889761</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09788113071201819</v>
+        <v>0.09971640651226846</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1608562756080866</v>
+        <v>0.1619499453289628</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>57751</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>44071</v>
+        <v>45296</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>73508</v>
+        <v>72224</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2450156722319065</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.186975630168547</v>
+        <v>0.1921709498709879</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3118634417211097</v>
+        <v>0.306418763867775</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>69</v>
@@ -3198,19 +3198,19 @@
         <v>72329</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>59356</v>
+        <v>59460</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>87571</v>
+        <v>87748</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3029181844834289</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2485885339177567</v>
+        <v>0.2490212678306638</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3667561502600138</v>
+        <v>0.3674950293638561</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>123</v>
@@ -3219,19 +3219,19 @@
         <v>130080</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>110282</v>
+        <v>111391</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>150624</v>
+        <v>150252</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2741541423733765</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2324285689229375</v>
+        <v>0.2347662360871743</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3174524555495896</v>
+        <v>0.3166690068247669</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>68213</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>55183</v>
+        <v>51718</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>86286</v>
+        <v>85371</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1254821824991365</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1015126008372531</v>
+        <v>0.09513773616248287</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1587266104525847</v>
+        <v>0.1570440181120564</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>54</v>
@@ -3344,19 +3344,19 @@
         <v>59904</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>46566</v>
+        <v>46013</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>78911</v>
+        <v>77030</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09620664959408171</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07478661039472058</v>
+        <v>0.0738983083331651</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1267318914199211</v>
+        <v>0.1237120285995978</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>120</v>
@@ -3365,19 +3365,19 @@
         <v>128117</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>107425</v>
+        <v>107837</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>150513</v>
+        <v>150344</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1098523042038881</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09210992039209792</v>
+        <v>0.09246313165322795</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1290553968297719</v>
+        <v>0.1289102991487406</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>159706</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>137796</v>
+        <v>137064</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>184328</v>
+        <v>180269</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2937868944781051</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2534818510163298</v>
+        <v>0.2521366736725536</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3390811719437774</v>
+        <v>0.3316138672187184</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>115</v>
@@ -3415,19 +3415,19 @@
         <v>124769</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>105001</v>
+        <v>106003</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>147436</v>
+        <v>145972</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2003813663796896</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1686340415178518</v>
+        <v>0.1702423045654744</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2367844731798021</v>
+        <v>0.2344335838857202</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>263</v>
@@ -3436,19 +3436,19 @@
         <v>284475</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>255448</v>
+        <v>257593</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>320739</v>
+        <v>316548</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2439187318381155</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2190297540849707</v>
+        <v>0.2208693907887397</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2750130150207245</v>
+        <v>0.2714190446010734</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>147379</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>125034</v>
+        <v>128095</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>169179</v>
+        <v>172520</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2711120033433167</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2300062182692346</v>
+        <v>0.2356371998549534</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3112137930997767</v>
+        <v>0.3173586860958524</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>169</v>
@@ -3486,19 +3486,19 @@
         <v>184843</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>157726</v>
+        <v>162057</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>207264</v>
+        <v>209632</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2968615753595878</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2533109289905791</v>
+        <v>0.2602669049247429</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3328693051685305</v>
+        <v>0.3366733421435807</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>302</v>
@@ -3507,19 +3507,19 @@
         <v>332223</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>299304</v>
+        <v>301098</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>365831</v>
+        <v>364792</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2848594107115891</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2566333929360198</v>
+        <v>0.2581721527343736</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.313675872086067</v>
+        <v>0.3127848430107306</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>61621</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>46642</v>
+        <v>47403</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>77856</v>
+        <v>79858</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1133556352140116</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.08579971766405441</v>
+        <v>0.08720104611963786</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1432208362840296</v>
+        <v>0.1469034419805899</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>75</v>
@@ -3557,19 +3557,19 @@
         <v>83869</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>65703</v>
+        <v>67669</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>103122</v>
+        <v>102827</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1346947425020112</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.105520648623357</v>
+        <v>0.108678207359009</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1656165380027615</v>
+        <v>0.1651423300757221</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>131</v>
@@ -3578,19 +3578,19 @@
         <v>145490</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>123727</v>
+        <v>122502</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>169930</v>
+        <v>168119</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1247483449871305</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1060880528693891</v>
+        <v>0.1050370174001541</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1457041148925253</v>
+        <v>0.1441513476216752</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>106691</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>88619</v>
+        <v>90191</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>127085</v>
+        <v>126108</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1962632844654301</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1630185863538061</v>
+        <v>0.1659106628075481</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2337799880077763</v>
+        <v>0.2319824642447021</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>156</v>
@@ -3628,19 +3628,19 @@
         <v>169273</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>147987</v>
+        <v>148522</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>192081</v>
+        <v>192377</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2718556661646297</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2376704348972986</v>
+        <v>0.2385292608125376</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3084858146206664</v>
+        <v>0.308960226301384</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>258</v>
@@ -3649,19 +3649,19 @@
         <v>275964</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>248977</v>
+        <v>246862</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>305872</v>
+        <v>305820</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2366212082592768</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2134811871466711</v>
+        <v>0.2116681073552098</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2622654443592086</v>
+        <v>0.262220798539272</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>49654</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>37716</v>
+        <v>35520</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>66748</v>
+        <v>64316</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.091023338111237</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.06913946186502806</v>
+        <v>0.0651145263408768</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1223599654029049</v>
+        <v>0.1179025286565799</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>38</v>
@@ -3774,19 +3774,19 @@
         <v>39230</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>28327</v>
+        <v>27597</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>53201</v>
+        <v>51996</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06226834208238528</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.04496228386732334</v>
+        <v>0.04380371460253576</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08444536207438198</v>
+        <v>0.08253152061012703</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>83</v>
@@ -3795,19 +3795,19 @@
         <v>88883</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>71504</v>
+        <v>71999</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>107558</v>
+        <v>109644</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.07561228404712517</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0608281136869261</v>
+        <v>0.06124883048647981</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09149895063752157</v>
+        <v>0.09327282615521003</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>129639</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>108329</v>
+        <v>110730</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>150185</v>
+        <v>151705</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2376494377668093</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1985852276059158</v>
+        <v>0.2029859527096295</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2753129063033458</v>
+        <v>0.2781009144752586</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>140</v>
@@ -3845,19 +3845,19 @@
         <v>150049</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>130032</v>
+        <v>127072</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>175086</v>
+        <v>172148</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2381689736657287</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2063973989395081</v>
+        <v>0.2016990009334345</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2779101387102388</v>
+        <v>0.2732464241486615</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>264</v>
@@ -3866,19 +3866,19 @@
         <v>279688</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>252766</v>
+        <v>250819</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>311865</v>
+        <v>309713</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2379278796702079</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2150262910413529</v>
+        <v>0.2133699158852909</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2653011657235337</v>
+        <v>0.2634699941836932</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>195117</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>172493</v>
+        <v>172663</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>219574</v>
+        <v>218537</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3576821438392025</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3162075137631286</v>
+        <v>0.3165194751142608</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4025160134922127</v>
+        <v>0.4006134624544503</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>188</v>
@@ -3916,19 +3916,19 @@
         <v>205945</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>179193</v>
+        <v>181616</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>230294</v>
+        <v>230297</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3268914642300506</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2844290986833214</v>
+        <v>0.2882756381891753</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3655411685668278</v>
+        <v>0.3655449555864925</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>366</v>
@@ -3937,19 +3937,19 @@
         <v>401062</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>365052</v>
+        <v>369026</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>435801</v>
+        <v>433038</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3411800783320025</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.310546654879726</v>
+        <v>0.3139269439098574</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3707323840546445</v>
+        <v>0.3683815036541423</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>83189</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>65552</v>
+        <v>66550</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>102368</v>
+        <v>103482</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1524997797489265</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1201684480274466</v>
+        <v>0.1219964216405518</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1876566611908832</v>
+        <v>0.1896997047618127</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>100</v>
@@ -3987,19 +3987,19 @@
         <v>108650</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>88879</v>
+        <v>90167</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>129340</v>
+        <v>131021</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1724575014587063</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1410760178539623</v>
+        <v>0.1431206234863638</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2052991027369954</v>
+        <v>0.2079676382802186</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>171</v>
@@ -4008,19 +4008,19 @@
         <v>191839</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>167346</v>
+        <v>165788</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>217590</v>
+        <v>219852</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1631959915639903</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1423595703611411</v>
+        <v>0.1410347909838443</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.185101976750435</v>
+        <v>0.1870265713180596</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>87906</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>71277</v>
+        <v>71421</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>108181</v>
+        <v>108248</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1611453005338248</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1306621219617401</v>
+        <v>0.1309254863111893</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1983136732489715</v>
+        <v>0.198436772834984</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>114</v>
@@ -4058,19 +4058,19 @@
         <v>126136</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>106581</v>
+        <v>106906</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>149357</v>
+        <v>150611</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2002137185631292</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1691744031877252</v>
+        <v>0.1696896550779573</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.23707166116593</v>
+        <v>0.2390622928759673</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>194</v>
@@ -4079,19 +4079,19 @@
         <v>214042</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>188703</v>
+        <v>189635</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>244105</v>
+        <v>246101</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1820837663866741</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.160527744036419</v>
+        <v>0.1613211414840603</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2076580211241003</v>
+        <v>0.2093564649037696</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>258353</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>226908</v>
+        <v>227509</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>290009</v>
+        <v>292007</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.09567610612831899</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.08403092599777906</v>
+        <v>0.08425355455955903</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1073992923499822</v>
+        <v>0.1081393321328449</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>183</v>
@@ -4204,19 +4204,19 @@
         <v>198332</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>172138</v>
+        <v>170571</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>229520</v>
+        <v>228557</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.06533175442737356</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.05670319367753041</v>
+        <v>0.05618710322438633</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.07560500601284471</v>
+        <v>0.07528795879368839</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>427</v>
@@ -4225,19 +4225,19 @@
         <v>456686</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>417360</v>
+        <v>413248</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>501036</v>
+        <v>497269</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.07961655384562562</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07276075985932948</v>
+        <v>0.07204389402177802</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08734836130105073</v>
+        <v>0.08669167585099034</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>646521</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>599558</v>
+        <v>599977</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>688528</v>
+        <v>692783</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2394264389331382</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2220347384480747</v>
+        <v>0.2221899978355684</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2549829061379985</v>
+        <v>0.2565588211812488</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>551</v>
@@ -4275,19 +4275,19 @@
         <v>593490</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>550084</v>
+        <v>549645</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>641281</v>
+        <v>639194</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.195498616751786</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1812004992108676</v>
+        <v>0.181055927316715</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2112413970628945</v>
+        <v>0.2105539261000377</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1163</v>
@@ -4296,19 +4296,19 @@
         <v>1240010</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1179571</v>
+        <v>1176098</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1305399</v>
+        <v>1304841</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2161779225720421</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2056412181307201</v>
+        <v>0.2050356781287039</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2275775596323813</v>
+        <v>0.2274801786190345</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>858965</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>815179</v>
+        <v>811913</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>913440</v>
+        <v>911233</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3181010430384508</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3018859822797468</v>
+        <v>0.3006764977868378</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3382749918822622</v>
+        <v>0.3374573989728824</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>848</v>
@@ -4346,19 +4346,19 @@
         <v>920837</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>867170</v>
+        <v>868836</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>970787</v>
+        <v>971781</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3033284974892932</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.285650273243548</v>
+        <v>0.2861992642115355</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3197822263593219</v>
+        <v>0.3201097467343524</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1649</v>
@@ -4367,19 +4367,19 @@
         <v>1779802</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1712151</v>
+        <v>1712327</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1859775</v>
+        <v>1856980</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3102827686546955</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2984888963347287</v>
+        <v>0.2985196330356575</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3242250616433201</v>
+        <v>0.3237376901124909</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>339031</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>302739</v>
+        <v>303373</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>377542</v>
+        <v>376484</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1255536119386675</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.112113718942977</v>
+        <v>0.1123482639964108</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1398152216705826</v>
+        <v>0.1394236815830181</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>408</v>
@@ -4417,19 +4417,19 @@
         <v>436839</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>396478</v>
+        <v>400326</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>478581</v>
+        <v>480825</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1438971552277296</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.130602053535868</v>
+        <v>0.1318695948864713</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1576469988524482</v>
+        <v>0.1583861570614488</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>712</v>
@@ -4438,19 +4438,19 @@
         <v>775870</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>723847</v>
+        <v>727905</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>834836</v>
+        <v>831830</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1352618138275667</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1261922228329551</v>
+        <v>0.126899797809892</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1455416902194409</v>
+        <v>0.1450175322075564</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>597419</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>551626</v>
+        <v>555634</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>646066</v>
+        <v>647205</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2212427999614245</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2042842017679749</v>
+        <v>0.205768438320811</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2392582379177674</v>
+        <v>0.2396800675849499</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>818</v>
@@ -4488,19 +4488,19 @@
         <v>886276</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>841742</v>
+        <v>834430</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>941445</v>
+        <v>940173</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2919439761038176</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2772743551024374</v>
+        <v>0.2748656761961971</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3101168666301845</v>
+        <v>0.3096979307514999</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1369</v>
@@ -4509,19 +4509,19 @@
         <v>1483695</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1413904</v>
+        <v>1420436</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1552841</v>
+        <v>1555764</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2586609411000701</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2464938408591704</v>
+        <v>0.2476325530916203</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2707153845813465</v>
+        <v>0.2712249953619138</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>20903</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12731</v>
+        <v>12729</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32681</v>
+        <v>32016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1042338767553517</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0634826913820563</v>
+        <v>0.06347672307071074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1629694332612079</v>
+        <v>0.1596524448294109</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -4878,19 +4878,19 @@
         <v>22228</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13693</v>
+        <v>13500</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32778</v>
+        <v>32500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1033641541004842</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06367485379541737</v>
+        <v>0.06277846126834535</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.152422769558141</v>
+        <v>0.1511304909616155</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -4899,19 +4899,19 @@
         <v>43131</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32054</v>
+        <v>30347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58939</v>
+        <v>58352</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.103783829091437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07713036373147211</v>
+        <v>0.07302203399973461</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1418216695129766</v>
+        <v>0.1404098879867884</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>42943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31197</v>
+        <v>31948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57107</v>
+        <v>55498</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2141421803235403</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1555693427594782</v>
+        <v>0.1593135513142884</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2847731966487131</v>
+        <v>0.2767490799141005</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -4949,19 +4949,19 @@
         <v>49413</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37629</v>
+        <v>37159</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62297</v>
+        <v>64041</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2297748120180178</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1749797710965782</v>
+        <v>0.1727923426892758</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2896903941595328</v>
+        <v>0.2977986045568253</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>87</v>
@@ -4970,19 +4970,19 @@
         <v>92355</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76019</v>
+        <v>74618</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>111053</v>
+        <v>110312</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2222314595156644</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1829226764261686</v>
+        <v>0.1795513106074116</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2672237139324689</v>
+        <v>0.2654397045265075</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>53762</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41661</v>
+        <v>42729</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67546</v>
+        <v>68149</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.268091537913199</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2077473215284046</v>
+        <v>0.2130756498364023</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3368291725054753</v>
+        <v>0.3398367557494072</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -5020,19 +5020,19 @@
         <v>55641</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42349</v>
+        <v>42589</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>69170</v>
+        <v>69708</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2587381213469772</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1969272295949604</v>
+        <v>0.1980424406923964</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3216483236554796</v>
+        <v>0.324151916204001</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>104</v>
@@ -5041,19 +5041,19 @@
         <v>109403</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>91831</v>
+        <v>91296</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>130110</v>
+        <v>129896</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2632515084489894</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2209706737392477</v>
+        <v>0.2196817909238588</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3130794773962515</v>
+        <v>0.312564008973362</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>36605</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27109</v>
+        <v>25553</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48903</v>
+        <v>47912</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1825342765834906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1351850488069825</v>
+        <v>0.1274229565688141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2438609909207257</v>
+        <v>0.238923070108742</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -5091,19 +5091,19 @@
         <v>37660</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27523</v>
+        <v>26755</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50901</v>
+        <v>49626</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1751234529022749</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.127986769852394</v>
+        <v>0.1244158851554855</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2366960232573845</v>
+        <v>0.2307666578777592</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -5112,19 +5112,19 @@
         <v>74264</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56951</v>
+        <v>59820</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91103</v>
+        <v>89399</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1786994634200655</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1370382272240172</v>
+        <v>0.1439434332879971</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2192167993862977</v>
+        <v>0.2151178365026842</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>46323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35596</v>
+        <v>34090</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>60730</v>
+        <v>59620</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2309981284244184</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1775055039518463</v>
+        <v>0.1699976828319185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.302842052826443</v>
+        <v>0.2973061526077723</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>49</v>
@@ -5162,19 +5162,19 @@
         <v>50106</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37601</v>
+        <v>38654</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63976</v>
+        <v>63744</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2329994596322459</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1748499295866121</v>
+        <v>0.1797438546290717</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2974962224604932</v>
+        <v>0.2964188863673037</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>90</v>
@@ -5183,19 +5183,19 @@
         <v>96429</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>78975</v>
+        <v>78738</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>112998</v>
+        <v>114633</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2320337395238437</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1900340715796686</v>
+        <v>0.1894644067830173</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2719019289126859</v>
+        <v>0.2758377959138482</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>41557</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30159</v>
+        <v>30141</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55798</v>
+        <v>54658</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09718207207972611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07052858685276019</v>
+        <v>0.07048674072934587</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1304858127069916</v>
+        <v>0.1278196183655577</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -5308,19 +5308,19 @@
         <v>32807</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23593</v>
+        <v>23185</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46063</v>
+        <v>46275</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06674407814842617</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04799847499995896</v>
+        <v>0.04716898811539774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09371262721870095</v>
+        <v>0.09414429662947611</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -5329,19 +5329,19 @@
         <v>74364</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60020</v>
+        <v>59603</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93755</v>
+        <v>94685</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08090482062259438</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06529900482575068</v>
+        <v>0.06484562766752748</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1020020696564497</v>
+        <v>0.1030138563666135</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>157457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>138777</v>
+        <v>138783</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>178477</v>
+        <v>177927</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3682190626484824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3245353086261041</v>
+        <v>0.3245487215956706</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4173730979068389</v>
+        <v>0.4160868035109234</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -5379,19 +5379,19 @@
         <v>170636</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151080</v>
+        <v>150127</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>193320</v>
+        <v>192831</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3471516368243363</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3073658452632413</v>
+        <v>0.30542678764701</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3932995204089906</v>
+        <v>0.3923052864273598</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>311</v>
@@ -5400,19 +5400,19 @@
         <v>328094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>299610</v>
+        <v>300814</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>358266</v>
+        <v>359054</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3569528869449166</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3259637460809096</v>
+        <v>0.3272728602483011</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3897783695807155</v>
+        <v>0.3906363763326047</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>140810</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>121345</v>
+        <v>119369</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161547</v>
+        <v>162155</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3292876494243388</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2837694131701826</v>
+        <v>0.2791490287024107</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3777824453783621</v>
+        <v>0.379203994622014</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>153</v>
@@ -5450,19 +5450,19 @@
         <v>166312</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>143381</v>
+        <v>144839</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>187949</v>
+        <v>190231</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3383538350247042</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2917016204819615</v>
+        <v>0.2946684802424083</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3823733939447044</v>
+        <v>0.3870156041131529</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>284</v>
@@ -5471,19 +5471,19 @@
         <v>307122</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>278777</v>
+        <v>278740</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>336022</v>
+        <v>336733</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3341359512903308</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3032984683008701</v>
+        <v>0.3032583120025918</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3655787046969133</v>
+        <v>0.3663518204206293</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>38859</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28311</v>
+        <v>28160</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51625</v>
+        <v>51952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09087181407918331</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06620609849626012</v>
+        <v>0.06585204281200793</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1207269176355687</v>
+        <v>0.1214910059606937</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -5521,19 +5521,19 @@
         <v>54208</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40875</v>
+        <v>40483</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70517</v>
+        <v>70298</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1102842263232176</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08315788966175297</v>
+        <v>0.08236094936100233</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1434634706996559</v>
+        <v>0.1430186721293123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -5542,19 +5542,19 @@
         <v>93067</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75872</v>
+        <v>75366</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112711</v>
+        <v>114033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1012529422244492</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08254598519125213</v>
+        <v>0.08199493736467742</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1226245749831841</v>
+        <v>0.1240634100950431</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>48936</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36559</v>
+        <v>37475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64953</v>
+        <v>65747</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1144394017682693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08549509356820199</v>
+        <v>0.08763732345552529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1518939642478317</v>
+        <v>0.15375136305991</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -5592,19 +5592,19 @@
         <v>67569</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53159</v>
+        <v>53354</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83834</v>
+        <v>85068</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1374662236793157</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1081488638978091</v>
+        <v>0.1085454329713422</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1705560759969315</v>
+        <v>0.1730663924975772</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -5613,19 +5613,19 @@
         <v>116506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97370</v>
+        <v>97644</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>137755</v>
+        <v>139413</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1267533989177091</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1059350017903921</v>
+        <v>0.1062321791421822</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1498721391088622</v>
+        <v>0.151675433318489</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>33238</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24503</v>
+        <v>23971</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44507</v>
+        <v>44610</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1204557245485888</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08880101332366916</v>
+        <v>0.08687244982046431</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1612942376533203</v>
+        <v>0.1616687028860407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -5738,19 +5738,19 @@
         <v>27299</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18725</v>
+        <v>18437</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37767</v>
+        <v>38517</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09037097034897666</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06198666681315548</v>
+        <v>0.06103487234797189</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1250239441152812</v>
+        <v>0.1275077629185172</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -5759,19 +5759,19 @@
         <v>60537</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46855</v>
+        <v>47501</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74871</v>
+        <v>74714</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.104732994891739</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08106162276554325</v>
+        <v>0.08218067567263769</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1295324811961129</v>
+        <v>0.1292602195180591</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>92406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>76743</v>
+        <v>78084</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107308</v>
+        <v>108401</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3348841814468112</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2781197622060981</v>
+        <v>0.2829780593679245</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3888895298725464</v>
+        <v>0.3928509918948725</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>81</v>
@@ -5809,19 +5809,19 @@
         <v>81849</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>67923</v>
+        <v>66570</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>98237</v>
+        <v>97211</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2709532052932123</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.224852116536893</v>
+        <v>0.2203733747220319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3252045655064967</v>
+        <v>0.3218060727373045</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>177</v>
@@ -5830,19 +5830,19 @@
         <v>174255</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>152550</v>
+        <v>153491</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>197929</v>
+        <v>196909</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3014729244329678</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2639213537826529</v>
+        <v>0.2655493949947048</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3424303463830558</v>
+        <v>0.3406660153924735</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>102775</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>87288</v>
+        <v>88131</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>116314</v>
+        <v>119759</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3724608124070789</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3163357886964309</v>
+        <v>0.3193896285917804</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4215276094084551</v>
+        <v>0.4340100385665968</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>120</v>
@@ -5880,19 +5880,19 @@
         <v>123155</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>106062</v>
+        <v>106801</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>141464</v>
+        <v>141551</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4076935444759794</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3511079507112314</v>
+        <v>0.3535543385852002</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4683021273083904</v>
+        <v>0.468592546796858</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>229</v>
@@ -5901,19 +5901,19 @@
         <v>225930</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>203491</v>
+        <v>203037</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>249573</v>
+        <v>250162</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3908739500952268</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3520524318626605</v>
+        <v>0.3512671153840992</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.431776809807594</v>
+        <v>0.4327965866536269</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>21629</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13987</v>
+        <v>14117</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31249</v>
+        <v>30993</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07838569963382912</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05068950483671675</v>
+        <v>0.05116174378415479</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1132463480579719</v>
+        <v>0.1123185724042186</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -5951,19 +5951,19 @@
         <v>27851</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19734</v>
+        <v>19380</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39002</v>
+        <v>38671</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09219780149011304</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06532783279138783</v>
+        <v>0.06415716875071072</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1291111097419711</v>
+        <v>0.1280165702430928</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -5972,19 +5972,19 @@
         <v>49480</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38098</v>
+        <v>38182</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63267</v>
+        <v>65283</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08560410474488117</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0659117134406309</v>
+        <v>0.06605667758973489</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1094560564675381</v>
+        <v>0.1129440656331249</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>25886</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17904</v>
+        <v>17517</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>35872</v>
+        <v>36471</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09381358196369198</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06488603783659568</v>
+        <v>0.06348114385937643</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1300020805401977</v>
+        <v>0.132173673036261</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -6022,19 +6022,19 @@
         <v>41924</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30051</v>
+        <v>30971</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54860</v>
+        <v>55134</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1387844783917186</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09947976173708251</v>
+        <v>0.1025265593867128</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1816079432366681</v>
+        <v>0.1825162873830629</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>68</v>
@@ -6043,19 +6043,19 @@
         <v>67810</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52869</v>
+        <v>53850</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>84916</v>
+        <v>84181</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1173160258351852</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09146608405351023</v>
+        <v>0.09316402905354235</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1469100318267846</v>
+        <v>0.1456379344353661</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>40470</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29431</v>
+        <v>29048</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54044</v>
+        <v>53825</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1210748050020792</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08805010175710223</v>
+        <v>0.08690283928138079</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1616857136291919</v>
+        <v>0.1610302004347634</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -6168,19 +6168,19 @@
         <v>32984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23161</v>
+        <v>23820</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45570</v>
+        <v>44531</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09337765326378102</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06556890127337073</v>
+        <v>0.06743452741346097</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1290088865011325</v>
+        <v>0.1260660517577772</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -6189,19 +6189,19 @@
         <v>73454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57363</v>
+        <v>58429</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90815</v>
+        <v>91254</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1068438945855695</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0834387364393003</v>
+        <v>0.08498948348573304</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1320968988333305</v>
+        <v>0.1327362397308102</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>68298</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>53378</v>
+        <v>53331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>84444</v>
+        <v>85429</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2043287852144804</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1596924570512707</v>
+        <v>0.1595536801824749</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2526345169792489</v>
+        <v>0.255580934065635</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -6239,19 +6239,19 @@
         <v>70554</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>55834</v>
+        <v>55326</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>86992</v>
+        <v>87069</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1997367685819478</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1580651729631099</v>
+        <v>0.1566263554633018</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2462723937083922</v>
+        <v>0.2464917326952353</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>129</v>
@@ -6260,19 +6260,19 @@
         <v>138851</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>119981</v>
+        <v>119918</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>162995</v>
+        <v>162223</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2019693881924995</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1745217023853982</v>
+        <v>0.1744294724661464</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2370886795734373</v>
+        <v>0.2359655924352101</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>91056</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75330</v>
+        <v>73723</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>108941</v>
+        <v>107964</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2724162053587835</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2253686688809776</v>
+        <v>0.2205610655477579</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3259220427536287</v>
+        <v>0.3229984595412619</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>73</v>
@@ -6310,19 +6310,19 @@
         <v>79848</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65101</v>
+        <v>63900</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>99169</v>
+        <v>96905</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2260487708111293</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1843012309946724</v>
+        <v>0.18090068583018</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2807459352806341</v>
+        <v>0.2743358291083842</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>159</v>
@@ -6331,19 +6331,19 @@
         <v>170904</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>147822</v>
+        <v>150172</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>195156</v>
+        <v>198155</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2485924268877779</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2150178532049045</v>
+        <v>0.218435710855535</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2838685059582902</v>
+        <v>0.2882310053292308</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>45486</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33303</v>
+        <v>34091</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>59203</v>
+        <v>59988</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1360833162845286</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09963491149350667</v>
+        <v>0.1019903136224748</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1771188165509024</v>
+        <v>0.1794693533414608</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -6381,19 +6381,19 @@
         <v>53055</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39881</v>
+        <v>39745</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68431</v>
+        <v>68124</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1501968434136451</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1129038244547237</v>
+        <v>0.1125181116674055</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1937282119482679</v>
+        <v>0.1928587870432452</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>92</v>
@@ -6402,19 +6402,19 @@
         <v>98541</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80609</v>
+        <v>80207</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119135</v>
+        <v>118851</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1433349045392773</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1172515839175188</v>
+        <v>0.116666387082559</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1732911304447838</v>
+        <v>0.1728779920801371</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>88944</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72739</v>
+        <v>72759</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>107289</v>
+        <v>106926</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2660968881401283</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2176154539779094</v>
+        <v>0.2176764791324152</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3209813748919467</v>
+        <v>0.3198931298275637</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>107</v>
@@ -6452,19 +6452,19 @@
         <v>116793</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>99555</v>
+        <v>99420</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>135195</v>
+        <v>135463</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3306399639294967</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2818399670154607</v>
+        <v>0.2814574442311792</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3827346864043559</v>
+        <v>0.3834929484267676</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>195</v>
@@ -6473,19 +6473,19 @@
         <v>205737</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>183333</v>
+        <v>183905</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>232990</v>
+        <v>231145</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2992593857948758</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2666714477299463</v>
+        <v>0.2675025178881526</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3389016324186577</v>
+        <v>0.3362179041869258</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>30796</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21538</v>
+        <v>21553</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41127</v>
+        <v>42292</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1943143330744911</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1359002692035916</v>
+        <v>0.1359974630357408</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2595011192147875</v>
+        <v>0.266851973545416</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>22</v>
@@ -6598,19 +6598,19 @@
         <v>21696</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14309</v>
+        <v>13077</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31257</v>
+        <v>32291</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1131761168115283</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07464098332842946</v>
+        <v>0.06821465221662396</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1630489636304827</v>
+        <v>0.1684453046246548</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>52</v>
@@ -6619,19 +6619,19 @@
         <v>52492</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>40090</v>
+        <v>40034</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>67492</v>
+        <v>65811</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1498968596932485</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1144816071234512</v>
+        <v>0.114322049483884</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1927325951032367</v>
+        <v>0.1879313926595156</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>36559</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26535</v>
+        <v>26882</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47678</v>
+        <v>47610</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2306826503192913</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1674303055338028</v>
+        <v>0.1696182585901534</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.300837076798445</v>
+        <v>0.3004111506529581</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>55</v>
@@ -6669,19 +6669,19 @@
         <v>53749</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>40957</v>
+        <v>42145</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>66661</v>
+        <v>66555</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2803791930825913</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2136480175056725</v>
+        <v>0.2198483463358603</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.347731399570415</v>
+        <v>0.3471812709952689</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>91</v>
@@ -6690,19 +6690,19 @@
         <v>90309</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>74894</v>
+        <v>75065</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>107270</v>
+        <v>107650</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2578880162614592</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2138686275264095</v>
+        <v>0.2143582720428989</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3063246712007842</v>
+        <v>0.3074099104023128</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>31756</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22629</v>
+        <v>22152</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>43203</v>
+        <v>42326</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2003727196466936</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1427849395947378</v>
+        <v>0.1397749076571727</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2726055035772588</v>
+        <v>0.2670674588521802</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>43</v>
@@ -6740,19 +6740,19 @@
         <v>40425</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>30013</v>
+        <v>30956</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>51943</v>
+        <v>53695</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2108738391012918</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1565602515351524</v>
+        <v>0.1614772592573421</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2709593260808628</v>
+        <v>0.2800958864672974</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>74</v>
@@ -6761,19 +6761,19 @@
         <v>72181</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>59554</v>
+        <v>57502</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>89777</v>
+        <v>88553</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.206121344836286</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1700656144399622</v>
+        <v>0.1642049161858348</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2563697907794776</v>
+        <v>0.2528756795632127</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>28728</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19718</v>
+        <v>20428</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38118</v>
+        <v>40025</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1812701852641339</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1244170984080051</v>
+        <v>0.12889606170533</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2405199259326471</v>
+        <v>0.2525522216412223</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>38</v>
@@ -6811,19 +6811,19 @@
         <v>38391</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>28131</v>
+        <v>28618</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>50477</v>
+        <v>50804</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2002651813419525</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1467417957849346</v>
+        <v>0.1492840930688199</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2633110566094993</v>
+        <v>0.2650175063666617</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>68</v>
@@ -6832,19 +6832,19 @@
         <v>67119</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>53707</v>
+        <v>53199</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>83489</v>
+        <v>81902</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1916686112035077</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.153366805426296</v>
+        <v>0.1519170721601455</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.238414663363529</v>
+        <v>0.2338813014438152</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>30644</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21717</v>
+        <v>21983</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>41950</v>
+        <v>42251</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.19336011169539</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1370276630691474</v>
+        <v>0.1387099242566528</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2646957795931809</v>
+        <v>0.266598575570631</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -6882,19 +6882,19 @@
         <v>37440</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27357</v>
+        <v>27452</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50084</v>
+        <v>49151</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1953056696626361</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.142705675833403</v>
+        <v>0.1431989301946869</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2612621830315092</v>
+        <v>0.256392863721307</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>67</v>
@@ -6903,19 +6903,19 @@
         <v>68085</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>54178</v>
+        <v>54990</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>84481</v>
+        <v>84469</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1944251680054985</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1547130160510429</v>
+        <v>0.1570299603259085</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2412478183333386</v>
+        <v>0.2412117143366242</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>33504</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>23357</v>
+        <v>23348</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>45483</v>
+        <v>45222</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1586222452700227</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1105803035531691</v>
+        <v>0.110538390122418</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2153366053510426</v>
+        <v>0.2141021140355816</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -7028,19 +7028,19 @@
         <v>18681</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11297</v>
+        <v>12069</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>28083</v>
+        <v>27953</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07973908932125798</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04822145135472906</v>
+        <v>0.05151677313302738</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1198744237526439</v>
+        <v>0.1193161629359211</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>50</v>
@@ -7049,19 +7049,19 @@
         <v>52185</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>39207</v>
+        <v>38868</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>67449</v>
+        <v>67139</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1171395341778801</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08800885309916617</v>
+        <v>0.08724856760504249</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1514035228559236</v>
+        <v>0.150708539964552</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>44724</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>34367</v>
+        <v>33366</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57732</v>
+        <v>56628</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.211743825121921</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.162708445595887</v>
+        <v>0.1579682803670337</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2733306606367035</v>
+        <v>0.2681021878244274</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>55</v>
@@ -7099,19 +7099,19 @@
         <v>58828</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>45620</v>
+        <v>45411</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>73092</v>
+        <v>72991</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2511106663069729</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1947320484213091</v>
+        <v>0.1938394323630587</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.311994716402602</v>
+        <v>0.3115626955770973</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>100</v>
@@ -7120,19 +7120,19 @@
         <v>103553</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>87820</v>
+        <v>86396</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>122248</v>
+        <v>122582</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2324458784290991</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1971304312803724</v>
+        <v>0.1939342806717206</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2744116810211048</v>
+        <v>0.2751610016918407</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>54874</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>43138</v>
+        <v>42844</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>68044</v>
+        <v>67862</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2597994495100522</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2042336202560132</v>
+        <v>0.2028424186055404</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3221516739585379</v>
+        <v>0.3212880104463685</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>46</v>
@@ -7170,19 +7170,19 @@
         <v>46641</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>36715</v>
+        <v>34760</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>60418</v>
+        <v>58669</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1990861176396117</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1567196296078172</v>
+        <v>0.1483724133481278</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2578962857103826</v>
+        <v>0.2504284580437125</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>101</v>
@@ -7191,19 +7191,19 @@
         <v>101515</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>84726</v>
+        <v>85063</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>120122</v>
+        <v>119865</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2278718019009901</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1901860423883887</v>
+        <v>0.1909411273924431</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.269639784421423</v>
+        <v>0.2690624169163566</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>34430</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24346</v>
+        <v>24423</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46995</v>
+        <v>46601</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1630061872360407</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1152653820288817</v>
+        <v>0.1156312963496242</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2224949015202919</v>
+        <v>0.2206275756439443</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>46</v>
@@ -7241,19 +7241,19 @@
         <v>49413</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>37564</v>
+        <v>37001</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>64172</v>
+        <v>62010</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2109200989750904</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1603447564335632</v>
+        <v>0.1579380454476812</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2739182330571543</v>
+        <v>0.2646912569156301</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>79</v>
@@ -7262,19 +7262,19 @@
         <v>83843</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>66855</v>
+        <v>67817</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>100680</v>
+        <v>99952</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1882029346792639</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1500703404249324</v>
+        <v>0.152229358687891</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.225996744637618</v>
+        <v>0.2243640076534737</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>43686</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>32182</v>
+        <v>32311</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>57124</v>
+        <v>55897</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2068282928619634</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1523662550276712</v>
+        <v>0.1529757363198197</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2704489323376171</v>
+        <v>0.2646396990380367</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>58</v>
@@ -7312,19 +7312,19 @@
         <v>60710</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>47667</v>
+        <v>47508</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>75855</v>
+        <v>75467</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.259144027757067</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2034689148589668</v>
+        <v>0.202789896940804</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3237885477232475</v>
+        <v>0.322131052533058</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>101</v>
@@ -7333,19 +7333,19 @@
         <v>104396</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>86488</v>
+        <v>85454</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>122903</v>
+        <v>123349</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2343398508127668</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1941414409090841</v>
+        <v>0.1918206322565956</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2758813741172637</v>
+        <v>0.2768821959318412</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>41885</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>29560</v>
+        <v>29389</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>55501</v>
+        <v>56835</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.103852518089694</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07329318474374205</v>
+        <v>0.07286862104800783</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1376130827348749</v>
+        <v>0.1409194984715738</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>30</v>
@@ -7458,19 +7458,19 @@
         <v>30543</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>20671</v>
+        <v>20787</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>41891</v>
+        <v>42307</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06340250061771265</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04290932675674293</v>
+        <v>0.04315067630191045</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08695988570523183</v>
+        <v>0.08782425080136456</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>65</v>
@@ -7479,19 +7479,19 @@
         <v>72428</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>56180</v>
+        <v>56604</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>90136</v>
+        <v>91439</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08183554482408346</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06347714509881731</v>
+        <v>0.06395656575064934</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.101843937116009</v>
+        <v>0.1033162861388235</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>111115</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>92777</v>
+        <v>93430</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>132221</v>
+        <v>130380</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2755071506549984</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.230036752029564</v>
+        <v>0.2316558101280943</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3278379325868973</v>
+        <v>0.3232744922598634</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>112</v>
@@ -7529,19 +7529,19 @@
         <v>119293</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>101248</v>
+        <v>101460</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>141771</v>
+        <v>140106</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2476365740643695</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2101766414362021</v>
+        <v>0.210616263103496</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2942978790294927</v>
+        <v>0.2908418643688654</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>209</v>
@@ -7550,19 +7550,19 @@
         <v>230409</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>203562</v>
+        <v>202831</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>257725</v>
+        <v>256970</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2603371760037372</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2300033485015877</v>
+        <v>0.2291770026595906</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2912015672946441</v>
+        <v>0.2903488503506219</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>110746</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>91546</v>
+        <v>93892</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>130276</v>
+        <v>130839</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2745909339006097</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2269852624859272</v>
+        <v>0.2328018657568768</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.323016597727911</v>
+        <v>0.3244113783398431</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>139</v>
@@ -7600,19 +7600,19 @@
         <v>151326</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>131933</v>
+        <v>131126</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>171445</v>
+        <v>172509</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3141327888772472</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2738756870956076</v>
+        <v>0.2721998425880064</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3558955847914917</v>
+        <v>0.3581055155773432</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>236</v>
@@ -7621,19 +7621,19 @@
         <v>262072</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>233026</v>
+        <v>235871</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>289636</v>
+        <v>291486</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2961135936743987</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2632946757514321</v>
+        <v>0.26650885173355</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3272577208133761</v>
+        <v>0.3293486960974032</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>51303</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>38434</v>
+        <v>37885</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>65035</v>
+        <v>66618</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1272033934976622</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0952952908801961</v>
+        <v>0.09393459490686591</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1612524335607733</v>
+        <v>0.1651780046520743</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>56</v>
@@ -7671,19 +7671,19 @@
         <v>60627</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>46858</v>
+        <v>45520</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>76568</v>
+        <v>77309</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1258534022720638</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09727165260927909</v>
+        <v>0.09449329103989983</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1589457508000684</v>
+        <v>0.1604827631141924</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>102</v>
@@ -7692,19 +7692,19 @@
         <v>111930</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>94399</v>
+        <v>93316</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>135239</v>
+        <v>134357</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1264685923138704</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1066606087984134</v>
+        <v>0.1054367197354997</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1528052616868505</v>
+        <v>0.1518094184881868</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>88263</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>71098</v>
+        <v>71310</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>105805</v>
+        <v>108092</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2188460038570358</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1762865755271416</v>
+        <v>0.1768102509436942</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.262339842091409</v>
+        <v>0.2680105899296417</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>105</v>
@@ -7742,19 +7742,19 @@
         <v>119938</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>99050</v>
+        <v>101437</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>138802</v>
+        <v>140483</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.248974734168607</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2056137057115988</v>
+        <v>0.2105685556983545</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2881340912741838</v>
+        <v>0.2916237191181087</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>184</v>
@@ -7763,19 +7763,19 @@
         <v>208201</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>184096</v>
+        <v>183738</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>238383</v>
+        <v>236500</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2352450931839102</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2080084937274617</v>
+        <v>0.2076047268593284</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2693475557822432</v>
+        <v>0.2672197395369086</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>65674</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>51197</v>
+        <v>51761</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>83959</v>
+        <v>82616</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1025144543879646</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07991739866248225</v>
+        <v>0.08079644933501826</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1310573956234841</v>
+        <v>0.1289598567309961</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>46</v>
@@ -7888,19 +7888,19 @@
         <v>47967</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>36808</v>
+        <v>35718</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>64686</v>
+        <v>62537</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06461443391909404</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.04958282794267748</v>
+        <v>0.04811411033852586</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08713716664124789</v>
+        <v>0.08424257581154032</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>109</v>
@@ -7909,19 +7909,19 @@
         <v>113640</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>96127</v>
+        <v>95451</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>136158</v>
+        <v>134322</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08217065007563309</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.06950686760789936</v>
+        <v>0.06901844391276489</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09845286142196577</v>
+        <v>0.09712466981004857</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>170737</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>147830</v>
+        <v>150404</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>193034</v>
+        <v>193068</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2665143471720221</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2307573981898253</v>
+        <v>0.2347758442625553</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.301319117883842</v>
+        <v>0.3013727983163122</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>179</v>
@@ -7959,19 +7959,19 @@
         <v>189509</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>165246</v>
+        <v>167314</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>214287</v>
+        <v>214210</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2552823766027633</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2225981946183862</v>
+        <v>0.2253836891132706</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.288659841840008</v>
+        <v>0.2885564730521767</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>342</v>
@@ -7980,19 +7980,19 @@
         <v>360246</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>329794</v>
+        <v>328520</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>396354</v>
+        <v>394114</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2604852999980094</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2384659498362563</v>
+        <v>0.2375451663753816</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.286594065473483</v>
+        <v>0.2849742744883094</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>209667</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>184140</v>
+        <v>186984</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>234089</v>
+        <v>234230</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3272817641700888</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2874359512049815</v>
+        <v>0.2918757382866795</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3654039275615285</v>
+        <v>0.3656252325202476</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>242</v>
@@ -8030,19 +8030,19 @@
         <v>268916</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>243152</v>
+        <v>243465</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>296311</v>
+        <v>297441</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3622493577830938</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3275433229882967</v>
+        <v>0.3279656065762799</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3991526726488449</v>
+        <v>0.4006753867881234</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>449</v>
@@ -8051,19 +8051,19 @@
         <v>478583</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>441551</v>
+        <v>442543</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>509490</v>
+        <v>515639</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3460515134455647</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3192746117373746</v>
+        <v>0.3199917724657182</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3683999349884841</v>
+        <v>0.372846330572001</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>103278</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>84666</v>
+        <v>85308</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>123428</v>
+        <v>124796</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1612126040204437</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1321601842232268</v>
+        <v>0.1331619926487115</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1926662444164562</v>
+        <v>0.1948019995094755</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>107</v>
@@ -8101,19 +8101,19 @@
         <v>121383</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>101671</v>
+        <v>100198</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>142376</v>
+        <v>143317</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1635115799739267</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1369577236085951</v>
+        <v>0.1349746476100112</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.19179046623486</v>
+        <v>0.1930591663803548</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>204</v>
@@ -8122,19 +8122,19 @@
         <v>224661</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>195833</v>
+        <v>197230</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>251415</v>
+        <v>253494</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1624466381011068</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1416023593699512</v>
+        <v>0.1426123034378812</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1817919824505866</v>
+        <v>0.1832956873359751</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>91275</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>74841</v>
+        <v>74735</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>109164</v>
+        <v>109670</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1424768302494809</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1168234230599586</v>
+        <v>0.1166580602640413</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1704007265109232</v>
+        <v>0.171190517090704</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>100</v>
@@ -8172,19 +8172,19 @@
         <v>114576</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>94166</v>
+        <v>95739</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>137453</v>
+        <v>136018</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1543422517211221</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1268481676833147</v>
+        <v>0.1289680229332219</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1851591513440597</v>
+        <v>0.1832264439784698</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>189</v>
@@ -8193,19 +8193,19 @@
         <v>205851</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>179189</v>
+        <v>180011</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>232052</v>
+        <v>234740</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.148845898379686</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1295669008919416</v>
+        <v>0.130161375500183</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1677914674328063</v>
+        <v>0.1697349592452493</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>308025</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>277311</v>
+        <v>276034</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>345703</v>
+        <v>342557</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1161489447654599</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.104567337657587</v>
+        <v>0.1040858016842705</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1303561630957834</v>
+        <v>0.1291699563345443</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>227</v>
@@ -8318,19 +8318,19 @@
         <v>234204</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>205650</v>
+        <v>203264</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>266006</v>
+        <v>263073</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.07775853125955176</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.06827800859801128</v>
+        <v>0.06748582767682096</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.08831717323245546</v>
+        <v>0.08734323945374063</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>517</v>
@@ -8339,19 +8339,19 @@
         <v>542230</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>502028</v>
+        <v>501597</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>589399</v>
+        <v>591127</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.0957338308588863</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.08863598705960209</v>
+        <v>0.08855992357219847</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1040617843488185</v>
+        <v>0.1043669463320527</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>724240</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>674988</v>
+        <v>676211</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>774139</v>
+        <v>771507</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2730935616180221</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2545216588812297</v>
+        <v>0.2549830332087344</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2919091720559633</v>
+        <v>0.2909168790132415</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>755</v>
@@ -8389,19 +8389,19 @@
         <v>793832</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>746977</v>
+        <v>749234</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>842652</v>
+        <v>844775</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2635611550555855</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.248004858018386</v>
+        <v>0.2487543593156958</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2797698976415791</v>
+        <v>0.2804750233821817</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1446</v>
@@ -8410,19 +8410,19 @@
         <v>1518072</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1446985</v>
+        <v>1455246</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1584424</v>
+        <v>1586783</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2680244532650745</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2554736102570711</v>
+        <v>0.2569321307105969</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2797392969121744</v>
+        <v>0.280155858901503</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>795445</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>743425</v>
+        <v>749354</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>843915</v>
+        <v>848517</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2999430943395046</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2803276061312969</v>
+        <v>0.2825632530605951</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3182198944954533</v>
+        <v>0.3199552493363236</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>869</v>
@@ -8460,19 +8460,19 @@
         <v>932264</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>881459</v>
+        <v>884894</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>988222</v>
+        <v>986661</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.309522282288516</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2926543907779774</v>
+        <v>0.2937948570803928</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.328100967408153</v>
+        <v>0.3275827719251496</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1636</v>
@@ -8481,19 +8481,19 @@
         <v>1727709</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1654173</v>
+        <v>1653640</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1800348</v>
+        <v>1803916</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3050370799273767</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2920539023945424</v>
+        <v>0.2919597817732959</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3178619910591459</v>
+        <v>0.3184919162951583</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>360317</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>324387</v>
+        <v>327366</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>398625</v>
+        <v>399695</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1358669140561655</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1223184074484189</v>
+        <v>0.1234418561389714</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1503117513381944</v>
+        <v>0.1507154230636342</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>407</v>
@@ -8531,19 +8531,19 @@
         <v>442588</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>400909</v>
+        <v>402895</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>481259</v>
+        <v>482182</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1469441689845955</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.13310621626757</v>
+        <v>0.1337657080314765</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1597835974398858</v>
+        <v>0.1600899740662202</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>751</v>
@@ -8552,19 +8552,19 @@
         <v>802905</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>751681</v>
+        <v>748244</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>856062</v>
+        <v>857501</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.141757536231966</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1327136972033613</v>
+        <v>0.1321069054152587</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1511427275474031</v>
+        <v>0.1513967668622528</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>463958</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>426538</v>
+        <v>427576</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>506681</v>
+        <v>504737</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1749474852208479</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1608373561738903</v>
+        <v>0.1612286575627547</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1910571025602993</v>
+        <v>0.1903241397496889</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>556</v>
@@ -8602,19 +8602,19 @@
         <v>609057</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>567794</v>
+        <v>565427</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>653874</v>
+        <v>657800</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2022138624117512</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1885142017824617</v>
+        <v>0.1877281723620775</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2170936323691246</v>
+        <v>0.2183970550791541</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1000</v>
@@ -8623,19 +8623,19 @@
         <v>1073015</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1014553</v>
+        <v>1014182</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1133196</v>
+        <v>1134970</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1894470997166966</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1791252412143941</v>
+        <v>0.179059670290885</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2000723219254933</v>
+        <v>0.2003856053955761</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>17071</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10294</v>
+        <v>9835</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30377</v>
+        <v>28129</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05516784022069299</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03326511279026503</v>
+        <v>0.03178365531638848</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09816791464145344</v>
+        <v>0.09090324698937499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -8992,19 +8992,19 @@
         <v>5127</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2521</v>
+        <v>2488</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8771</v>
+        <v>9769</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0164471772499005</v>
+        <v>0.01644717724990051</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008088875363199006</v>
+        <v>0.007982228949162016</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02813840215970239</v>
+        <v>0.03134025281299834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -9013,19 +9013,19 @@
         <v>22198</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14533</v>
+        <v>14404</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34186</v>
+        <v>34838</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03573655221879674</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02339659704337632</v>
+        <v>0.02318967372914228</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05503632193716775</v>
+        <v>0.05608619842304452</v>
       </c>
     </row>
     <row r="5">
@@ -9042,19 +9042,19 @@
         <v>93134</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75919</v>
+        <v>77289</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>110831</v>
+        <v>111958</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3009734009603979</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2453417969295793</v>
+        <v>0.2497692908902958</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3581652467514564</v>
+        <v>0.361806778379457</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -9063,19 +9063,19 @@
         <v>78969</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66934</v>
+        <v>66629</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93729</v>
+        <v>94284</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2533332751394036</v>
+        <v>0.2533332751394037</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2147252943076002</v>
+        <v>0.2137466761786933</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3006866696579921</v>
+        <v>0.3024655595477961</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>216</v>
@@ -9084,19 +9084,19 @@
         <v>172102</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>151869</v>
+        <v>151394</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193056</v>
+        <v>196192</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2770660364100391</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2444930802448374</v>
+        <v>0.243727988094445</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3107997818135499</v>
+        <v>0.3158487612417892</v>
       </c>
     </row>
     <row r="6">
@@ -9113,19 +9113,19 @@
         <v>63300</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49598</v>
+        <v>48712</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79881</v>
+        <v>79094</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2045615930174599</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1602811590209481</v>
+        <v>0.1574196400158163</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2581474773156955</v>
+        <v>0.2556024186397512</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>149</v>
@@ -9134,19 +9134,19 @@
         <v>85580</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72086</v>
+        <v>74305</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>98328</v>
+        <v>98150</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2745435368245965</v>
+        <v>0.2745435368245966</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2312526755489292</v>
+        <v>0.238372995237961</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3154388280940425</v>
+        <v>0.3148694315864963</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>211</v>
@@ -9155,19 +9155,19 @@
         <v>148880</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>130771</v>
+        <v>129593</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>169197</v>
+        <v>167540</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2396808084625761</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.210528123852388</v>
+        <v>0.2086310688785493</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2723894657074633</v>
+        <v>0.2697215240815672</v>
       </c>
     </row>
     <row r="7">
@@ -9184,19 +9184,19 @@
         <v>50269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38509</v>
+        <v>38527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63470</v>
+        <v>65862</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1624501827274994</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1244476567981251</v>
+        <v>0.1245061713474288</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.205113318556617</v>
+        <v>0.2128420335212653</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -9205,19 +9205,19 @@
         <v>45722</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37751</v>
+        <v>36355</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56458</v>
+        <v>55108</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1466777836140057</v>
+        <v>0.1466777836140058</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1211050268056875</v>
+        <v>0.1166292130180481</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1811188524516432</v>
+        <v>0.1767884065278677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>136</v>
@@ -9226,19 +9226,19 @@
         <v>95991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79524</v>
+        <v>81624</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112086</v>
+        <v>114240</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1545350798821187</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1280247317159605</v>
+        <v>0.1314060097662361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1804471267321537</v>
+        <v>0.1839137297646795</v>
       </c>
     </row>
     <row r="8">
@@ -9255,19 +9255,19 @@
         <v>85668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>71275</v>
+        <v>70907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>100302</v>
+        <v>103519</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2768469830739497</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2303337007151387</v>
+        <v>0.2291460163544627</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3241391294431947</v>
+        <v>0.334535601063895</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>164</v>
@@ -9276,19 +9276,19 @@
         <v>96320</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>82928</v>
+        <v>83284</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>109665</v>
+        <v>109741</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3089982271720934</v>
+        <v>0.3089982271720935</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2660343987768141</v>
+        <v>0.2671778942724937</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3518090497381233</v>
+        <v>0.3520510293724409</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>265</v>
@@ -9297,19 +9297,19 @@
         <v>181988</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>163499</v>
+        <v>163048</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>203459</v>
+        <v>205941</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2929815230264693</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2632157773468136</v>
+        <v>0.2624905250728083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3275473693562916</v>
+        <v>0.3315426277357399</v>
       </c>
     </row>
     <row r="9">
@@ -9401,19 +9401,19 @@
         <v>62297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46511</v>
+        <v>45841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82059</v>
+        <v>81230</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1549935841566124</v>
+        <v>0.1549935841566125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.115717212259124</v>
+        <v>0.1140520232883463</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2041598116562126</v>
+        <v>0.2020983512453302</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -9422,19 +9422,19 @@
         <v>72296</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60902</v>
+        <v>59615</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86878</v>
+        <v>87922</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.158116280119962</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1331975153998807</v>
+        <v>0.1303832471747578</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1900092301688636</v>
+        <v>0.1922923166365925</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -9443,19 +9443,19 @@
         <v>134593</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114007</v>
+        <v>114623</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159625</v>
+        <v>159470</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.156655418964263</v>
+        <v>0.1566554189642631</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1326949371791395</v>
+        <v>0.1334115331435781</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.185790358666033</v>
+        <v>0.1856104962936979</v>
       </c>
     </row>
     <row r="11">
@@ -9472,19 +9472,19 @@
         <v>171262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>148934</v>
+        <v>149999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>195380</v>
+        <v>193643</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.426092569722498</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3705428493914141</v>
+        <v>0.373192533187474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.486097758986929</v>
+        <v>0.4817770958621029</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -9493,19 +9493,19 @@
         <v>184123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>166739</v>
+        <v>166210</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>203081</v>
+        <v>201632</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4026913702059139</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3646718610291862</v>
+        <v>0.3635147270937436</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4441539499295357</v>
+        <v>0.4409850346279148</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>383</v>
@@ -9514,19 +9514,19 @@
         <v>355384</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>324976</v>
+        <v>325405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>386148</v>
+        <v>386542</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4136389308303779</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3782466134800234</v>
+        <v>0.3787457017742588</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4494453436713059</v>
+        <v>0.4499048354685639</v>
       </c>
     </row>
     <row r="12">
@@ -9543,19 +9543,19 @@
         <v>87839</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71659</v>
+        <v>70600</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106309</v>
+        <v>107680</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2185398785090555</v>
+        <v>0.2185398785090556</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1782861217705814</v>
+        <v>0.1756491516121153</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2644924751240019</v>
+        <v>0.2679052406502394</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>138</v>
@@ -9564,19 +9564,19 @@
         <v>98576</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>83802</v>
+        <v>83565</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114967</v>
+        <v>114317</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2155943171763423</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1832828284077793</v>
+        <v>0.1827630792131038</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2514420876202138</v>
+        <v>0.2500211079688843</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>211</v>
@@ -9585,19 +9585,19 @@
         <v>186415</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>163169</v>
+        <v>164071</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>213146</v>
+        <v>213216</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2169723111223408</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1899161204065479</v>
+        <v>0.1909660199885105</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2480847519472278</v>
+        <v>0.2481664978763715</v>
       </c>
     </row>
     <row r="13">
@@ -9614,19 +9614,19 @@
         <v>34605</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21723</v>
+        <v>22946</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49196</v>
+        <v>48341</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08609533279722074</v>
+        <v>0.08609533279722072</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05404627488760419</v>
+        <v>0.05708952951613683</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1223972461881628</v>
+        <v>0.1202714758107656</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -9635,19 +9635,19 @@
         <v>33547</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24434</v>
+        <v>25415</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43728</v>
+        <v>43116</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07337032239815081</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0534395764379099</v>
+        <v>0.05558575243410561</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09563727960264157</v>
+        <v>0.09429862502230113</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -9656,19 +9656,19 @@
         <v>68152</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54942</v>
+        <v>53496</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85289</v>
+        <v>86896</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07932334299831396</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06394840080282051</v>
+        <v>0.06226510882017872</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09926927309056206</v>
+        <v>0.1011399071597127</v>
       </c>
     </row>
     <row r="14">
@@ -9685,19 +9685,19 @@
         <v>45933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33545</v>
+        <v>32744</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61577</v>
+        <v>61615</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1142786348146133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08345834998455902</v>
+        <v>0.08146510022616925</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1532010171959534</v>
+        <v>0.15329615561657</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>95</v>
@@ -9706,19 +9706,19 @@
         <v>68689</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56076</v>
+        <v>55852</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82027</v>
+        <v>81248</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1502277100996309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.122642998164355</v>
+        <v>0.1221532563376998</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1793988630320545</v>
+        <v>0.1776961651542157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>133</v>
@@ -9727,19 +9727,19 @@
         <v>114621</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94925</v>
+        <v>96352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>133476</v>
+        <v>134995</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1334099960847042</v>
+        <v>0.1334099960847043</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1104851842182864</v>
+        <v>0.1121459413281622</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1553553865119541</v>
+        <v>0.157123826349727</v>
       </c>
     </row>
     <row r="15">
@@ -9831,19 +9831,19 @@
         <v>33234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22203</v>
+        <v>22157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45493</v>
+        <v>46758</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1129247222900392</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07544289607060185</v>
+        <v>0.07528497016879146</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1545787187838608</v>
+        <v>0.1588786764216016</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -9852,19 +9852,19 @@
         <v>27758</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19254</v>
+        <v>19968</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38471</v>
+        <v>38544</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0805865263152136</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05589850046366013</v>
+        <v>0.0579728467182469</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1116885035877478</v>
+        <v>0.111900737897222</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -9873,19 +9873,19 @@
         <v>60991</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47858</v>
+        <v>48130</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78824</v>
+        <v>79152</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09548630550944288</v>
+        <v>0.09548630550944287</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07492417522102271</v>
+        <v>0.07535080735821162</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1234048649888577</v>
+        <v>0.1239177748681795</v>
       </c>
     </row>
     <row r="17">
@@ -9902,19 +9902,19 @@
         <v>53973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41836</v>
+        <v>42094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68640</v>
+        <v>69036</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1833926618088567</v>
+        <v>0.1833926618088566</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1421517422567173</v>
+        <v>0.1430313626801826</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2332288815030534</v>
+        <v>0.234575992266</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>88</v>
@@ -9923,19 +9923,19 @@
         <v>64383</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52759</v>
+        <v>51952</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78116</v>
+        <v>76943</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1869171146912184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1531723660810789</v>
+        <v>0.1508284403552416</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2267883520848313</v>
+        <v>0.2233820342630164</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>145</v>
@@ -9944,19 +9944,19 @@
         <v>118355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100612</v>
+        <v>100146</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>137323</v>
+        <v>137560</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1852932278866318</v>
+        <v>0.1852932278866317</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1575150026053332</v>
+        <v>0.1567846438276186</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2149880347981722</v>
+        <v>0.215358820049739</v>
       </c>
     </row>
     <row r="18">
@@ -9973,19 +9973,19 @@
         <v>93206</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78116</v>
+        <v>78949</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>108714</v>
+        <v>108684</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3167014510266928</v>
+        <v>0.3167014510266927</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2654275102701609</v>
+        <v>0.2682588709877436</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3693976008185734</v>
+        <v>0.3692954160331952</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>164</v>
@@ -9994,19 +9994,19 @@
         <v>104526</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>90525</v>
+        <v>92247</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>118667</v>
+        <v>117889</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3034627413888968</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2628153809783488</v>
+        <v>0.2678126461499888</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3445168885555928</v>
+        <v>0.342258843807739</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>271</v>
@@ -10015,19 +10015,19 @@
         <v>197732</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>177684</v>
+        <v>176529</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>219997</v>
+        <v>217537</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3095624585955472</v>
+        <v>0.309562458595547</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2781767349273715</v>
+        <v>0.2763680514694115</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3444198073934638</v>
+        <v>0.3405691702707104</v>
       </c>
     </row>
     <row r="19">
@@ -10044,19 +10044,19 @@
         <v>39936</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31159</v>
+        <v>31061</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51631</v>
+        <v>50853</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1356978590986932</v>
+        <v>0.1356978590986931</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1058739740740625</v>
+        <v>0.1055425231262811</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.175435274734446</v>
+        <v>0.1727911947050541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>105</v>
@@ -10065,19 +10065,19 @@
         <v>65352</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53520</v>
+        <v>54703</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78117</v>
+        <v>79623</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1897325238968788</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1553807918615364</v>
+        <v>0.1588139137815807</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2267913969711747</v>
+        <v>0.2311635284259355</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>159</v>
@@ -10086,19 +10086,19 @@
         <v>105288</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91117</v>
+        <v>90451</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>121797</v>
+        <v>121730</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1648361266162787</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1426505471857431</v>
+        <v>0.1416071849448788</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1906816905749328</v>
+        <v>0.1905759594319596</v>
       </c>
     </row>
     <row r="20">
@@ -10115,7 +10115,7 @@
         <v>73953</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59578</v>
+        <v>61002</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>87984</v>
@@ -10124,10 +10124,10 @@
         <v>0.2512833057757183</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2024372755854508</v>
+        <v>0.2072778233957114</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.298958502819783</v>
+        <v>0.298957604588538</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>132</v>
@@ -10136,19 +10136,19 @@
         <v>82426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69678</v>
+        <v>70373</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>96133</v>
+        <v>96342</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2393010937077924</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2022911448662279</v>
+        <v>0.2043072729970457</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2790940455074443</v>
+        <v>0.2797012965432089</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>226</v>
@@ -10157,19 +10157,19 @@
         <v>156379</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>138109</v>
+        <v>139562</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>175542</v>
+        <v>176891</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2448218813920995</v>
+        <v>0.2448218813920994</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2162193866209598</v>
+        <v>0.2184929741061387</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2748232294397066</v>
+        <v>0.2769346718407582</v>
       </c>
     </row>
     <row r="21">
@@ -10261,19 +10261,19 @@
         <v>27304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17748</v>
+        <v>16230</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42721</v>
+        <v>42514</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08781058657621954</v>
+        <v>0.08781058657621955</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05707756731249179</v>
+        <v>0.05219615786359652</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1373933069374118</v>
+        <v>0.1367300583238485</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -10282,19 +10282,19 @@
         <v>33332</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23249</v>
+        <v>22986</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45682</v>
+        <v>45981</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08654323120110372</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06036360485381094</v>
+        <v>0.05968147325552515</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1186093435440258</v>
+        <v>0.1193866081157633</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -10303,19 +10303,19 @@
         <v>60635</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44227</v>
+        <v>45521</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>78227</v>
+        <v>77122</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08710935520753792</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06353750491527607</v>
+        <v>0.06539566526696799</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1123817590537435</v>
+        <v>0.1107941348863734</v>
       </c>
     </row>
     <row r="23">
@@ -10332,19 +10332,19 @@
         <v>71803</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>55325</v>
+        <v>55502</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92502</v>
+        <v>90774</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2309240059813786</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1779304563563387</v>
+        <v>0.1784993809517005</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2974930491919899</v>
+        <v>0.2919377032300629</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>105</v>
@@ -10353,19 +10353,19 @@
         <v>76165</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>62879</v>
+        <v>61990</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>92722</v>
+        <v>92394</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1977576724717067</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1632623776388697</v>
+        <v>0.1609535808854814</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2407475196771977</v>
+        <v>0.2398960127542364</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>164</v>
@@ -10374,19 +10374,19 @@
         <v>147968</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>126342</v>
+        <v>125805</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>173031</v>
+        <v>170771</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2125729784023836</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1815048652260399</v>
+        <v>0.1807328917346752</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2485796947293892</v>
+        <v>0.2453317529363596</v>
       </c>
     </row>
     <row r="24">
@@ -10403,19 +10403,19 @@
         <v>76019</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>58106</v>
+        <v>58560</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>98868</v>
+        <v>99209</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2444850440698756</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.186875300822734</v>
+        <v>0.1883346170218675</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3179681149161143</v>
+        <v>0.3190656032746504</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>136</v>
@@ -10424,19 +10424,19 @@
         <v>97652</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>82168</v>
+        <v>83417</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>114504</v>
+        <v>114701</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2535480729111246</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2133435599007512</v>
+        <v>0.2165868294047867</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2973037170701609</v>
+        <v>0.297813145688167</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>192</v>
@@ -10445,19 +10445,19 @@
         <v>173672</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>147819</v>
+        <v>148470</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>199401</v>
+        <v>199091</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2494996439552227</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2123585241549962</v>
+        <v>0.2132945845754652</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2864631420555634</v>
+        <v>0.2860167541150047</v>
       </c>
     </row>
     <row r="25">
@@ -10474,19 +10474,19 @@
         <v>61313</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44575</v>
+        <v>45878</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81862</v>
+        <v>81154</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1971888430635364</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1433580848132301</v>
+        <v>0.1475474621628239</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2632745100881189</v>
+        <v>0.2609980611754804</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>91</v>
@@ -10495,19 +10495,19 @@
         <v>54836</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44096</v>
+        <v>44525</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68412</v>
+        <v>67967</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.142379499961595</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1144924140671573</v>
+        <v>0.1156069885171028</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1776278355464926</v>
+        <v>0.1764722079843279</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>144</v>
@@ -10516,19 +10516,19 @@
         <v>116150</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>96107</v>
+        <v>97770</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>142018</v>
+        <v>140327</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1668626761220801</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.138069503451364</v>
+        <v>0.1404577528975963</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2040249876153594</v>
+        <v>0.2015965774769989</v>
       </c>
     </row>
     <row r="26">
@@ -10545,19 +10545,19 @@
         <v>74498</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>58131</v>
+        <v>58017</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>91998</v>
+        <v>91656</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2395915203089899</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1869543781272721</v>
+        <v>0.1865878168771432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2958721209808208</v>
+        <v>0.2947739365668616</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>189</v>
@@ -10566,19 +10566,19 @@
         <v>123158</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>107457</v>
+        <v>108075</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>141926</v>
+        <v>140971</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3197715234544702</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2790044274875419</v>
+        <v>0.2806103045659167</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3685025522911786</v>
+        <v>0.3660236008043184</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>262</v>
@@ -10587,19 +10587,19 @@
         <v>197656</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>174419</v>
+        <v>174748</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>225932</v>
+        <v>224016</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2839553463127755</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2505737261016131</v>
+        <v>0.2510464372096218</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3245775637756373</v>
+        <v>0.321824954939038</v>
       </c>
     </row>
     <row r="27">
@@ -10691,19 +10691,19 @@
         <v>8913</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4589</v>
+        <v>4409</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15281</v>
+        <v>15400</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05556404131496938</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02860987517905094</v>
+        <v>0.02748779142301093</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09526341899249693</v>
+        <v>0.09600913365875441</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -10712,19 +10712,19 @@
         <v>8986</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4875</v>
+        <v>5409</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14648</v>
+        <v>14508</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04587504143168544</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02488818426350719</v>
+        <v>0.02761413335384261</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.074783050957583</v>
+        <v>0.07406700459012557</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -10733,19 +10733,19 @@
         <v>17898</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11701</v>
+        <v>12009</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25865</v>
+        <v>25887</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.05023725356025654</v>
+        <v>0.05023725356025652</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03284091191922583</v>
+        <v>0.03370715038487532</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07259873105347528</v>
+        <v>0.07266016624096908</v>
       </c>
     </row>
     <row r="29">
@@ -10762,19 +10762,19 @@
         <v>30612</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22756</v>
+        <v>22657</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>39547</v>
+        <v>39794</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1908390373360219</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1418631834671149</v>
+        <v>0.1412488287542527</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2465422193868219</v>
+        <v>0.2480832621293774</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>74</v>
@@ -10783,19 +10783,19 @@
         <v>33347</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26162</v>
+        <v>25801</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41664</v>
+        <v>41705</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1702466708249759</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1335631241751991</v>
+        <v>0.1317239826578032</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2127059086000187</v>
+        <v>0.2129159652986529</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>118</v>
@@ -10804,19 +10804,19 @@
         <v>63958</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>53847</v>
+        <v>54353</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>75566</v>
+        <v>77326</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1795178311131954</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1511368817694605</v>
+        <v>0.1525574452323788</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2120970053990149</v>
+        <v>0.2170386163355151</v>
       </c>
     </row>
     <row r="30">
@@ -10833,19 +10833,19 @@
         <v>79532</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>69009</v>
+        <v>68995</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>92093</v>
+        <v>90259</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4958186645402786</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4302201035082421</v>
+        <v>0.4301272529958956</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5741289805960775</v>
+        <v>0.5626951909319988</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>184</v>
@@ -10854,19 +10854,19 @@
         <v>80564</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>70880</v>
+        <v>70784</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>89568</v>
+        <v>89422</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.4113061804966675</v>
+        <v>0.4113061804966672</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3618653438885153</v>
+        <v>0.3613744414208592</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4572748357261812</v>
+        <v>0.4565266755099436</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>299</v>
@@ -10875,19 +10875,19 @@
         <v>160096</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>147243</v>
+        <v>146896</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>174493</v>
+        <v>173605</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.449355657981619</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4132804002621372</v>
+        <v>0.4123056493129783</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4897642727219794</v>
+        <v>0.4872714424383882</v>
       </c>
     </row>
     <row r="31">
@@ -10904,19 +10904,19 @@
         <v>26391</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19584</v>
+        <v>18834</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35317</v>
+        <v>34806</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1645245166238647</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1220901964727839</v>
+        <v>0.1174131652942957</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2201724440732566</v>
+        <v>0.2169863770794124</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>101</v>
@@ -10925,19 +10925,19 @@
         <v>41958</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>34491</v>
+        <v>34524</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>49897</v>
+        <v>49557</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2142111312524101</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.176088539593222</v>
+        <v>0.1762547742087702</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2547382353087527</v>
+        <v>0.253005635799168</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>141</v>
@@ -10946,19 +10946,19 @@
         <v>68349</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>58166</v>
+        <v>57792</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>79900</v>
+        <v>79715</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1918410666873132</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1632610002158551</v>
+        <v>0.1622092038007389</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2242618284168388</v>
+        <v>0.2237421957856645</v>
       </c>
     </row>
     <row r="32">
@@ -10975,19 +10975,19 @@
         <v>14958</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9814</v>
+        <v>10033</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>22326</v>
+        <v>21206</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09325374018486542</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06118221127921317</v>
+        <v>0.06254716432602708</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1391832621523039</v>
+        <v>0.1322012114135557</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -10996,19 +10996,19 @@
         <v>31019</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24728</v>
+        <v>25294</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>38797</v>
+        <v>39062</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1583609759942612</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1262457985886459</v>
+        <v>0.1291325462407686</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.198072589632356</v>
+        <v>0.1994245051310592</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>96</v>
@@ -11017,19 +11017,19 @@
         <v>45977</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>36698</v>
+        <v>37649</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>54941</v>
+        <v>55346</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1290481906576158</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1030033840182066</v>
+        <v>0.1056741256542257</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1542068831651499</v>
+        <v>0.1553434843530542</v>
       </c>
     </row>
     <row r="33">
@@ -11121,19 +11121,19 @@
         <v>34452</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>24879</v>
+        <v>25821</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>45543</v>
+        <v>46132</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1355092876477756</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09785601192530506</v>
+        <v>0.1015616771701241</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.179133027106017</v>
+        <v>0.1814516912515985</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>31</v>
@@ -11142,19 +11142,19 @@
         <v>23384</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>16059</v>
+        <v>16611</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>33468</v>
+        <v>32612</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.09209654168061793</v>
+        <v>0.09209654168061789</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0632496112259264</v>
+        <v>0.06542334055530712</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1318148994642953</v>
+        <v>0.1284433951260266</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>68</v>
@@ -11163,19 +11163,19 @@
         <v>57836</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>45227</v>
+        <v>44537</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>73525</v>
+        <v>71314</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1138172306700145</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08900494942934026</v>
+        <v>0.08764608066775205</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1446936369417559</v>
+        <v>0.1403418925424867</v>
       </c>
     </row>
     <row r="35">
@@ -11192,19 +11192,19 @@
         <v>59815</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>47264</v>
+        <v>47478</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>73126</v>
+        <v>74260</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2352713367394329</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1859047031875704</v>
+        <v>0.1867435494180199</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2876246081731845</v>
+        <v>0.2920851244271823</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>81</v>
@@ -11213,19 +11213,19 @@
         <v>50615</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>40818</v>
+        <v>40579</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>60831</v>
+        <v>61442</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1993475530900213</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1607594581248212</v>
+        <v>0.1598182537507886</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2395804814964823</v>
+        <v>0.2419878528255997</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>146</v>
@@ -11234,19 +11234,19 @@
         <v>110431</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>93752</v>
+        <v>94279</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>127493</v>
+        <v>127983</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2173212913226025</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1844991033896671</v>
+        <v>0.1855365676158225</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2508993505742396</v>
+        <v>0.251864040810657</v>
       </c>
     </row>
     <row r="36">
@@ -11263,19 +11263,19 @@
         <v>69419</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>57927</v>
+        <v>57347</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>82030</v>
+        <v>80795</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2730458034765462</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.227844146576647</v>
+        <v>0.2255612242410008</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.322648312824064</v>
+        <v>0.3177913077610236</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>121</v>
@@ -11284,19 +11284,19 @@
         <v>70898</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>60810</v>
+        <v>60046</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>83142</v>
+        <v>83386</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2792311032850284</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2394970648105671</v>
+        <v>0.2364894593067052</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3274531971000826</v>
+        <v>0.3284154605332333</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>222</v>
@@ -11305,19 +11305,19 @@
         <v>140317</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>124155</v>
+        <v>124980</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>156648</v>
+        <v>159200</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2761364136851617</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2443290599377705</v>
+        <v>0.2459530712232262</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3082743729219155</v>
+        <v>0.3132963135318972</v>
       </c>
     </row>
     <row r="37">
@@ -11334,19 +11334,19 @@
         <v>38813</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>29919</v>
+        <v>30174</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>48480</v>
+        <v>49386</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1526622037622103</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1176816240486337</v>
+        <v>0.1186845080290177</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.190686299258847</v>
+        <v>0.1942475883597987</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>94</v>
@@ -11355,19 +11355,19 @@
         <v>46331</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>37086</v>
+        <v>38101</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>55347</v>
+        <v>55288</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1824729862550541</v>
+        <v>0.182472986255054</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1460612307107607</v>
+        <v>0.1500588355074873</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2179849281033253</v>
+        <v>0.2177522680649925</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>160</v>
@@ -11376,19 +11376,19 @@
         <v>85144</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>71470</v>
+        <v>72615</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>99335</v>
+        <v>98008</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1675577644548146</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1406480093218062</v>
+        <v>0.1429029783955205</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1954847525425065</v>
+        <v>0.1928732826069928</v>
       </c>
     </row>
     <row r="38">
@@ -11405,19 +11405,19 @@
         <v>51741</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>41631</v>
+        <v>42017</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>63085</v>
+        <v>63054</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.203511368374035</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1637485364806208</v>
+        <v>0.1652660628502818</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2481334596822298</v>
+        <v>0.2480085305217587</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>124</v>
@@ -11426,19 +11426,19 @@
         <v>62677</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>52527</v>
+        <v>52940</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>73265</v>
+        <v>73026</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2468518156892783</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2068760968192334</v>
+        <v>0.2085046219074508</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2885534429202004</v>
+        <v>0.287612025698705</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>211</v>
@@ -11447,19 +11447,19 @@
         <v>114418</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>101633</v>
+        <v>100951</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>130185</v>
+        <v>130077</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2251672998674066</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2000083480160408</v>
+        <v>0.1986652495226423</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2561957259490059</v>
+        <v>0.2559842052388621</v>
       </c>
     </row>
     <row r="39">
@@ -11551,19 +11551,19 @@
         <v>40076</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>28162</v>
+        <v>29378</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>55726</v>
+        <v>58103</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06844487041413534</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04809707692728399</v>
+        <v>0.05017402663548034</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09517124564122885</v>
+        <v>0.09923157382261341</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>40</v>
@@ -11572,19 +11572,19 @@
         <v>33294</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>23749</v>
+        <v>23546</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>45364</v>
+        <v>45123</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.04785310156246112</v>
+        <v>0.04785310156246111</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03413368301089065</v>
+        <v>0.03384252038638108</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06520179757820495</v>
+        <v>0.06485511644508943</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>74</v>
@@ -11593,19 +11593,19 @@
         <v>73370</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>58370</v>
+        <v>58090</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>92850</v>
+        <v>92071</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.05726324744811398</v>
+        <v>0.05726324744811397</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04555550515455482</v>
+        <v>0.04533767755359214</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07246633935271572</v>
+        <v>0.07185838454102718</v>
       </c>
     </row>
     <row r="41">
@@ -11622,19 +11622,19 @@
         <v>103711</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>85913</v>
+        <v>81786</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>128772</v>
+        <v>127467</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.1771228183170476</v>
+        <v>0.1771228183170477</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1467267722563065</v>
+        <v>0.1396795874615608</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2199250245840172</v>
+        <v>0.2176952398992898</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>158</v>
@@ -11643,19 +11643,19 @@
         <v>130273</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>113367</v>
+        <v>111315</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>150947</v>
+        <v>152230</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.187239155166509</v>
+        <v>0.1872391551665089</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1629406221563251</v>
+        <v>0.1599919049982554</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2169541857555651</v>
+        <v>0.218798162575063</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>237</v>
@@ -11664,19 +11664,19 @@
         <v>233983</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>206746</v>
+        <v>205607</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>265000</v>
+        <v>268448</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1826161329158442</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1613586375161918</v>
+        <v>0.1604692575973657</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2068239001239014</v>
+        <v>0.2095147070127512</v>
       </c>
     </row>
     <row r="42">
@@ -11693,19 +11693,19 @@
         <v>197898</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>173669</v>
+        <v>172665</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>224465</v>
+        <v>225225</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3379819753278788</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2966019483535465</v>
+        <v>0.2948868480723281</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3833543943915357</v>
+        <v>0.3846522807720294</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>274</v>
@@ -11714,19 +11714,19 @@
         <v>215745</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>192940</v>
+        <v>192677</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>238450</v>
+        <v>237578</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3100871390614839</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2773098702221293</v>
+        <v>0.2769324967630014</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3427214114919704</v>
+        <v>0.3414673049153136</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>445</v>
@@ -11735,19 +11735,19 @@
         <v>413643</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>381011</v>
+        <v>377915</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>450112</v>
+        <v>443107</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.322834683024995</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2973663454304349</v>
+        <v>0.2949502464264759</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3512976368729664</v>
+        <v>0.3458305962084998</v>
       </c>
     </row>
     <row r="43">
@@ -11764,19 +11764,19 @@
         <v>109639</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>91416</v>
+        <v>90798</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>130131</v>
+        <v>130597</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1872476408165859</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1561253494532325</v>
+        <v>0.1550706742085639</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2222448107047011</v>
+        <v>0.2230415785053653</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>154</v>
@@ -11785,19 +11785,19 @@
         <v>118928</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>99742</v>
+        <v>102226</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>136870</v>
+        <v>137960</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1709338421516756</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1433582839407603</v>
+        <v>0.1469277121619384</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1967214974597573</v>
+        <v>0.1982876196869726</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>258</v>
@@ -11806,19 +11806,19 @@
         <v>228567</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>204599</v>
+        <v>204560</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>256274</v>
+        <v>256186</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1783890164250355</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1596830312004272</v>
+        <v>0.1596526442376945</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2000134991097511</v>
+        <v>0.199944582014186</v>
       </c>
     </row>
     <row r="44">
@@ -11835,19 +11835,19 @@
         <v>134205</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>115010</v>
+        <v>111424</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>157836</v>
+        <v>155981</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2292026951243523</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1964210455236537</v>
+        <v>0.1902954590678516</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2695609466804255</v>
+        <v>0.2663924669535578</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>256</v>
@@ -11856,19 +11856,19 @@
         <v>197516</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>176693</v>
+        <v>178114</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>223325</v>
+        <v>222574</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2838867620578703</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2539591653353048</v>
+        <v>0.2560008046031705</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3209817229367901</v>
+        <v>0.3199023934012455</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>381</v>
@@ -11877,19 +11877,19 @@
         <v>331720</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>300331</v>
+        <v>299611</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>365266</v>
+        <v>361205</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.2588969201860114</v>
+        <v>0.2588969201860113</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2343988299151544</v>
+        <v>0.2338363580339784</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2850783545906048</v>
+        <v>0.281908557449966</v>
       </c>
     </row>
     <row r="45">
@@ -11981,19 +11981,19 @@
         <v>18886</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>11283</v>
+        <v>11148</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>29797</v>
+        <v>28937</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03986442732400154</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02381635194590297</v>
+        <v>0.02353150730386622</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0628943700976024</v>
+        <v>0.0610795906970676</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>29</v>
@@ -12002,19 +12002,19 @@
         <v>22468</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>15088</v>
+        <v>15794</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>31437</v>
+        <v>31801</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03920209072067006</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02632532283376915</v>
+        <v>0.02755652629944465</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05485059720246478</v>
+        <v>0.05548515638853287</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>47</v>
@@ -12023,19 +12023,19 @@
         <v>41354</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>30352</v>
+        <v>30477</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>54270</v>
+        <v>54989</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03950182058957222</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02899189115911825</v>
+        <v>0.02911167507368495</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05183855947002374</v>
+        <v>0.0525257115028397</v>
       </c>
     </row>
     <row r="47">
@@ -12052,19 +12052,19 @@
         <v>154726</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>136265</v>
+        <v>135036</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>176593</v>
+        <v>174432</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.3265931731911987</v>
+        <v>0.3265931731911986</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2876258416564553</v>
+        <v>0.2850307561410325</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3727483356350519</v>
+        <v>0.368188819100865</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>201</v>
@@ -12073,19 +12073,19 @@
         <v>151814</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>133971</v>
+        <v>133417</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>170432</v>
+        <v>170274</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2648808869610181</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2337480068116403</v>
+        <v>0.2327816114420691</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2973639170707465</v>
+        <v>0.297088827367138</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>357</v>
@@ -12094,19 +12094,19 @@
         <v>306540</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>279216</v>
+        <v>277267</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>334384</v>
+        <v>330907</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2928077980940987</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2667072970399353</v>
+        <v>0.2648460143309379</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3194039532692877</v>
+        <v>0.3160824923822205</v>
       </c>
     </row>
     <row r="48">
@@ -12123,19 +12123,19 @@
         <v>157878</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>138740</v>
+        <v>139822</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>177155</v>
+        <v>177980</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3332465822284795</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2928493402013583</v>
+        <v>0.2951340648212171</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3739359318072404</v>
+        <v>0.3756773398918097</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>288</v>
@@ -12144,19 +12144,19 @@
         <v>203364</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>185250</v>
+        <v>184547</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>224066</v>
+        <v>221984</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.354823757499857</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3232191931110235</v>
+        <v>0.3219917306556047</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3909425687096507</v>
+        <v>0.3873114444435534</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>467</v>
@@ -12165,19 +12165,19 @@
         <v>361243</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>333344</v>
+        <v>333567</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>389611</v>
+        <v>390203</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.3450593508781498</v>
+        <v>0.3450593508781497</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3184107775913398</v>
+        <v>0.3186233894451092</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.372157298412565</v>
+        <v>0.3727219547439163</v>
       </c>
     </row>
     <row r="49">
@@ -12194,19 +12194,19 @@
         <v>114218</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>97654</v>
+        <v>96877</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>132288</v>
+        <v>132895</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2410887896658208</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2061260140845322</v>
+        <v>0.2044856706643315</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2792306536580371</v>
+        <v>0.2805120725525832</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>190</v>
@@ -12215,19 +12215,19 @@
         <v>127804</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>111141</v>
+        <v>111297</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>144980</v>
+        <v>144712</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2229878863373127</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.193915441491044</v>
+        <v>0.1941874396001929</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2529571543117648</v>
+        <v>0.2524890744634893</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>325</v>
@@ -12236,19 +12236,19 @@
         <v>242021</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>217972</v>
+        <v>217130</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>265343</v>
+        <v>267881</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2311791615203169</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2082073161229128</v>
+        <v>0.2074029581659366</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2534562429805771</v>
+        <v>0.2558801708186139</v>
       </c>
     </row>
     <row r="50">
@@ -12265,19 +12265,19 @@
         <v>28050</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>19617</v>
+        <v>19452</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>39659</v>
+        <v>39633</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.05920702759049965</v>
+        <v>0.05920702759049966</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04140684985343563</v>
+        <v>0.04105863325761418</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.08371131195903164</v>
+        <v>0.08365726790088013</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>95</v>
@@ -12286,19 +12286,19 @@
         <v>67691</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>54777</v>
+        <v>55756</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>81692</v>
+        <v>81716</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1181053784811421</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0955725212944987</v>
+        <v>0.09728086899102828</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1425334349017754</v>
+        <v>0.1425748550473633</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>126</v>
@@ -12307,19 +12307,19 @@
         <v>95741</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>81921</v>
+        <v>79971</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>114069</v>
+        <v>112505</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.09145186891786239</v>
+        <v>0.0914518689178624</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.07825124134276169</v>
+        <v>0.07638870328744227</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1089584466429755</v>
+        <v>0.1074644607120197</v>
       </c>
     </row>
     <row r="51">
@@ -12411,19 +12411,19 @@
         <v>242233</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>210135</v>
+        <v>213332</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>276349</v>
+        <v>277987</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.08680493196751203</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.07530229303205412</v>
+        <v>0.07644809361953375</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.09903056569890106</v>
+        <v>0.09961748892435555</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>295</v>
@@ -12432,19 +12432,19 @@
         <v>226643</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>202473</v>
+        <v>199483</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>253064</v>
+        <v>254931</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.07044715712168324</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.06293440639632399</v>
+        <v>0.06200505282731188</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.07865934258558627</v>
+        <v>0.0792396861614602</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>505</v>
@@ -12453,19 +12453,19 @@
         <v>468877</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>429371</v>
+        <v>429138</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>509553</v>
+        <v>510750</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.07804518694259177</v>
+        <v>0.07804518694259176</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07146935936263882</v>
+        <v>0.07143063843454638</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08481587569776988</v>
+        <v>0.08501502158066795</v>
       </c>
     </row>
     <row r="53">
@@ -12482,19 +12482,19 @@
         <v>739034</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>684903</v>
+        <v>690529</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>791441</v>
+        <v>791546</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.2648349373831534</v>
+        <v>0.2648349373831535</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2454370709840228</v>
+        <v>0.2474529780756779</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2836149403981592</v>
+        <v>0.2836526021019967</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1081</v>
@@ -12503,19 +12503,19 @@
         <v>769688</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>728633</v>
+        <v>728613</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>810795</v>
+        <v>812865</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2392406640400292</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.226479787329441</v>
+        <v>0.2264733528755694</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2520177607849556</v>
+        <v>0.2526614167352675</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1766</v>
@@ -12524,19 +12524,19 @@
         <v>1508722</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1442065</v>
+        <v>1441898</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1576277</v>
+        <v>1575411</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.2511289589908018</v>
+        <v>0.2511289589908019</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.240033722409706</v>
+        <v>0.2400059235815792</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.262373621221348</v>
+        <v>0.262229483569026</v>
       </c>
     </row>
     <row r="54">
@@ -12553,19 +12553,19 @@
         <v>825091</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>774193</v>
+        <v>777801</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>875072</v>
+        <v>880592</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.2956736768813656</v>
+        <v>0.2956736768813655</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2774340673756789</v>
+        <v>0.2787271359614188</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3135846432191802</v>
+        <v>0.3155625245876201</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1454</v>
@@ -12574,19 +12574,19 @@
         <v>956906</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>911513</v>
+        <v>913626</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1001543</v>
+        <v>1002023</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2974333923615814</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2833239735860295</v>
+        <v>0.2839805845396951</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3113076594713462</v>
+        <v>0.3114569503633293</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2318</v>
@@ -12595,19 +12595,19 @@
         <v>1781997</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1719507</v>
+        <v>1712637</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1849247</v>
+        <v>1853248</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.2966160213669926</v>
+        <v>0.2966160213669927</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2862145027610347</v>
+        <v>0.2850709104680491</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.30780980005964</v>
+        <v>0.3084757326098616</v>
       </c>
     </row>
     <row r="55">
@@ -12624,19 +12624,19 @@
         <v>475183</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>438172</v>
+        <v>434663</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>519355</v>
+        <v>516171</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1702830987873645</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1570200840084215</v>
+        <v>0.1557625908778777</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1861123789738623</v>
+        <v>0.1849713449569849</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>866</v>
@@ -12645,19 +12645,19 @@
         <v>534479</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>500201</v>
+        <v>501019</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>571720</v>
+        <v>566704</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1661311388107045</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1554764554712248</v>
+        <v>0.1557308245089599</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1777066995767662</v>
+        <v>0.1761474159303342</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1400</v>
@@ -12666,19 +12666,19 @@
         <v>1009662</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>958405</v>
+        <v>957472</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1070634</v>
+        <v>1065860</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1680596844726425</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1595279261019007</v>
+        <v>0.1593726102379326</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1782084945429008</v>
+        <v>0.1774138951679605</v>
       </c>
     </row>
     <row r="56">
@@ -12695,19 +12695,19 @@
         <v>509005</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>471519</v>
+        <v>469295</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>548033</v>
+        <v>548166</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1824033549806044</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1689699973658788</v>
+        <v>0.1681733179957955</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1963892086505813</v>
+        <v>0.1964367358321203</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1127</v>
@@ -12716,19 +12716,19 @@
         <v>729495</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>686993</v>
+        <v>688554</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>769805</v>
+        <v>773033</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.2267476476660017</v>
+        <v>0.2267476476660018</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2135367793125043</v>
+        <v>0.2140219504076257</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2392771298878252</v>
+        <v>0.2402804959921553</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1700</v>
@@ -12737,19 +12737,19 @@
         <v>1238500</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1180099</v>
+        <v>1180462</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1290827</v>
+        <v>1297626</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2061501482269714</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.196429191240225</v>
+        <v>0.1964896666388338</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2148599962342044</v>
+        <v>0.2159917198221621</v>
       </c>
     </row>
     <row r="57">
